--- a/Sierra Leone Demo/Sierra Leone Demo_dataElements.xlsx
+++ b/Sierra Leone Demo/Sierra Leone Demo_dataElements.xlsx
@@ -1,1494 +1,1487 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpainter/Dropbox/_Malaria/Projects/HMIS/Surv_Assessment/Sierra Leone Demo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4AFC2C-9F67-E541-9260-73F01F5E7B9B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="mal" sheetId="1" r:id="rId1"/>
-    <sheet name="malaria_items" sheetId="2" r:id="rId2"/>
-    <sheet name="TB" sheetId="3" r:id="rId3"/>
-    <sheet name="HIV" sheetId="4" r:id="rId4"/>
-    <sheet name="imm" sheetId="5" r:id="rId5"/>
-    <sheet name="conf" sheetId="6" r:id="rId6"/>
-    <sheet name="susp" sheetId="7" r:id="rId7"/>
-    <sheet name="opd" sheetId="8" r:id="rId8"/>
-    <sheet name="ipd" sheetId="9" r:id="rId9"/>
-    <sheet name="patients" sheetId="10" r:id="rId10"/>
-    <sheet name="fever" sheetId="11" r:id="rId11"/>
-    <sheet name="attendance" sheetId="12" r:id="rId12"/>
-    <sheet name="anc" sheetId="13" r:id="rId13"/>
-    <sheet name="deaths" sheetId="14" r:id="rId14"/>
-    <sheet name="pop" sheetId="15" r:id="rId15"/>
-    <sheet name="stock" sheetId="16" r:id="rId16"/>
-    <sheet name="malaria_stock" sheetId="17" r:id="rId17"/>
+    <sheet name="mal" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="malaria_items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TB" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="HIV" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="imm" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="conf" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="susp" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="opd" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ipd" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="patients" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="fever" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="attendance" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="anc" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="deaths" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="pop" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="stock" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="malaria_stock" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="482">
-  <si>
-    <t>dataElement.id</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>pVal</t>
-  </si>
-  <si>
-    <t>Reports_Last_Year</t>
-  </si>
-  <si>
-    <t>dataElement</t>
-  </si>
-  <si>
-    <t>dataSets</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>categoryCombo</t>
-  </si>
-  <si>
-    <t>wZwzzRnr9N4</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Rapid diagnostic test for Malaria positive</t>
-  </si>
-  <si>
-    <t>Morbidity</t>
-  </si>
-  <si>
-    <t>Morbidity Cases</t>
-  </si>
-  <si>
-    <t>AFM5H0wNq3t</t>
-  </si>
-  <si>
-    <t>Malaria treated at PHU with ACT &lt; 24 hrs new</t>
-  </si>
-  <si>
-    <t>Malaria / Morbidity / New cases</t>
-  </si>
-  <si>
-    <t>d92E7cpMvdl</t>
-  </si>
-  <si>
-    <t>Malaria treated at PHU with ACT &gt; 24 hrs new</t>
-  </si>
-  <si>
-    <t>Qk9nnX0i7lZ</t>
-  </si>
-  <si>
-    <t>Rapid diagnostic test for Malaria negative</t>
-  </si>
-  <si>
-    <t>x8gsvCKjGdZ</t>
-  </si>
-  <si>
-    <t>Malaria treated in community with ACT &lt;24 hrs new</t>
-  </si>
-  <si>
-    <t>nmh0BSu3vaV</t>
-  </si>
-  <si>
-    <t>Malaria treated at PHU without ACT &lt; 24 hrs new</t>
-  </si>
-  <si>
-    <t>CecywZWejT3</t>
-  </si>
-  <si>
-    <t>Malaria treated at PHU with ACT &lt; 24 hrs f-up</t>
-  </si>
-  <si>
-    <t>Follow-up / Malaria / Morbidity</t>
-  </si>
-  <si>
-    <t>EGUJY3jQdJ6</t>
-  </si>
-  <si>
-    <t>Malaria treated at PHU without ACT &gt; 24 hrs new</t>
-  </si>
-  <si>
-    <t>bVkFujnp3F2</t>
-  </si>
-  <si>
-    <t>Malaria treated at PHU with ACT &gt; 24 hrs f-up</t>
-  </si>
-  <si>
-    <t>kcbTUfABUck</t>
-  </si>
-  <si>
-    <t>Malaria treated in community with ACT &gt;24 hrs new</t>
-  </si>
-  <si>
-    <t>vq2qO3eTrNi</t>
-  </si>
-  <si>
-    <t>IDSR Malaria</t>
-  </si>
-  <si>
-    <t>IDSR Weekly; IDSR Weekly (Start Wednesday)</t>
-  </si>
-  <si>
-    <t>IDSR</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>iIBbZPAqnMt</t>
-  </si>
-  <si>
-    <t>Malaria treated at PHU without ACT &lt; 24 hrs f-up</t>
-  </si>
-  <si>
-    <t>pgi981WXhas</t>
-  </si>
-  <si>
-    <t>Malaria treated at PHU without ACT &gt; 24 hrs f-up</t>
-  </si>
-  <si>
-    <t>TQnDEASFsVH</t>
-  </si>
-  <si>
-    <t>Malaria treated in community with ACT &lt;24 hrs f-up</t>
-  </si>
-  <si>
-    <t>vzcahelbU5s</t>
-  </si>
-  <si>
-    <t>Malaria treated in community with ACT &gt;24 hrs f-up</t>
-  </si>
-  <si>
-    <t>hnwWyM4gDSg</t>
-  </si>
-  <si>
-    <t>Malaria referrals</t>
-  </si>
-  <si>
-    <t>Malaria / Morbidity / Referrals</t>
-  </si>
-  <si>
-    <t>Morbidity Referrals</t>
-  </si>
-  <si>
-    <t>r6nrJANOqMw</t>
-  </si>
-  <si>
-    <t>Malaria (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>Mortality &lt; 5 years; Mortality &lt; 5 years by age group; Mortality &lt; 5 years by gender</t>
-  </si>
-  <si>
-    <t>Mortality / Mortality &lt; 5 years</t>
-  </si>
-  <si>
-    <t>p4K11MFEWtw</t>
-  </si>
-  <si>
-    <t>Inpatient malaria cases</t>
-  </si>
-  <si>
-    <t>Inpatient Morbidity/Mortality Summary</t>
-  </si>
-  <si>
-    <t>Inpatient morbidity/mortality aggregates</t>
-  </si>
-  <si>
-    <t>Under 5/5 and above</t>
-  </si>
-  <si>
-    <t>wWy5TE9cQ0V</t>
-  </si>
-  <si>
-    <t>Inpatient malaria deaths</t>
-  </si>
-  <si>
-    <t>a0WhmKHnZ6J</t>
-  </si>
-  <si>
-    <t>Malaria (Deaths &lt; 5 yrs) Narrative</t>
-  </si>
-  <si>
-    <t>Mortality &lt; 5 years Narratives</t>
-  </si>
-  <si>
-    <t>Mortality Narrative</t>
-  </si>
-  <si>
-    <t>nXJJZNVAy0Y</t>
-  </si>
-  <si>
-    <t>Malaria Outbreak Threshold</t>
-  </si>
-  <si>
-    <t>O7OiONht8T3</t>
-  </si>
-  <si>
-    <t>Treatment Malaria</t>
-  </si>
-  <si>
-    <t>MHW5v2Iljtw</t>
-  </si>
-  <si>
-    <t>WHOMCH Malaria prophylaxis given in second trimester</t>
-  </si>
-  <si>
-    <t>zsWyjzmBLGz</t>
-  </si>
-  <si>
-    <t>WHOMCH Malaria prophylaxis given in third trimester</t>
-  </si>
-  <si>
-    <t>cYeuwXTCPkU</t>
-  </si>
-  <si>
-    <t>ANC 2nd visit</t>
-  </si>
-  <si>
-    <t>Reproductive Health</t>
-  </si>
-  <si>
-    <t>ANC / Reproductive health</t>
-  </si>
-  <si>
-    <t>Fixed/Outreach</t>
-  </si>
-  <si>
-    <t>fbfJHSPpUQD</t>
-  </si>
-  <si>
-    <t>ANC 1st visit</t>
-  </si>
-  <si>
-    <t>Jtf34kNZhzP</t>
-  </si>
-  <si>
-    <t>ANC 3rd visit</t>
-  </si>
-  <si>
-    <t>rbkr8PL0rwM</t>
-  </si>
-  <si>
-    <t>Iron Folate given at ANC 3rd</t>
-  </si>
-  <si>
-    <t>Reproductive health</t>
-  </si>
-  <si>
-    <t>hCVSHjcml9g</t>
-  </si>
-  <si>
-    <t>Albendazole given at ANC (2nd trimester)</t>
-  </si>
-  <si>
-    <t>Anaemia / Reproductive health</t>
-  </si>
-  <si>
-    <t>bqK6eSIwo3h</t>
-  </si>
-  <si>
-    <t>IPT 1st dose given at PHU</t>
-  </si>
-  <si>
-    <t>ANC</t>
-  </si>
-  <si>
-    <t>V37YqbqpEhV</t>
-  </si>
-  <si>
-    <t>IPT 2nd dose given at PHU</t>
-  </si>
-  <si>
-    <t>hfdmMSPBgLG</t>
-  </si>
-  <si>
-    <t>ANC 4th or more visits</t>
-  </si>
-  <si>
-    <t>ybzlGLjWwnK</t>
-  </si>
-  <si>
-    <t>LLITN given at ANC 1st</t>
-  </si>
-  <si>
-    <t>yTHydhurQQU</t>
-  </si>
-  <si>
-    <t>IPT 1st dose given by TBA</t>
-  </si>
-  <si>
-    <t>SA7WeFZnUci</t>
-  </si>
-  <si>
-    <t>IPT 2nd dose given by TBA</t>
-  </si>
-  <si>
-    <t>uz8dqEzuxyc</t>
-  </si>
-  <si>
-    <t>Lassa fever referrals</t>
-  </si>
-  <si>
-    <t>Lassa Fever / Morbidity / Referrals</t>
-  </si>
-  <si>
-    <t>NpJtsQkMTm3</t>
-  </si>
-  <si>
-    <t>Louse Borne Typhus - Relapsing fever (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>NCteyX2xpMf</t>
-  </si>
-  <si>
-    <t>Lassa fever new</t>
-  </si>
-  <si>
-    <t>Lassa Fever / Morbidity / New cases</t>
-  </si>
-  <si>
-    <t>WQSdEl9xUMA</t>
-  </si>
-  <si>
-    <t>MNCH ANC Attendance</t>
-  </si>
-  <si>
-    <t>MNCH Quarterly Report</t>
-  </si>
-  <si>
-    <t>MNCH Aggregates</t>
-  </si>
-  <si>
-    <t>iYCGteGcr6Q</t>
-  </si>
-  <si>
-    <t>MNCH ANC registrants</t>
-  </si>
-  <si>
-    <t>dVdxnTNL2jZ</t>
-  </si>
-  <si>
-    <t>Lassa fever follow-up</t>
-  </si>
-  <si>
-    <t>Follow-up / Lassa Fever / Morbidity</t>
-  </si>
-  <si>
-    <t>A21lT9x7pmc</t>
-  </si>
-  <si>
-    <t>Cabin fever</t>
-  </si>
-  <si>
-    <t>g9eOBujte1U</t>
-  </si>
-  <si>
-    <t>MCH ANC Visit</t>
-  </si>
-  <si>
-    <t>lNNb3truQoi</t>
-  </si>
-  <si>
-    <t>MCH IPT dose</t>
-  </si>
-  <si>
-    <t>QhKQD2wHowC</t>
-  </si>
-  <si>
-    <t>MNCH Cases of anaemia during ANC</t>
-  </si>
-  <si>
-    <t>aLF5wmCZrKF</t>
-  </si>
-  <si>
-    <t>MNCH Heamoglobin checks performed during ANC</t>
-  </si>
-  <si>
-    <t>hKZh1et5n7v</t>
-  </si>
-  <si>
-    <t>RDT test result</t>
-  </si>
-  <si>
-    <t>zg2HS37R0S0</t>
-  </si>
-  <si>
-    <t>TB Cohort new SS+ trans out</t>
-  </si>
-  <si>
-    <t>TB Facility Reporting Form</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>sVDDqpaKwBH</t>
-  </si>
-  <si>
-    <t>TB No. of suspects screened</t>
-  </si>
-  <si>
-    <t>Yf4u4QOIdsi</t>
-  </si>
-  <si>
-    <t>ART entry point: TB</t>
-  </si>
-  <si>
-    <t>ART monthly summary</t>
-  </si>
-  <si>
-    <t>ART / ART enrollment / ART entry points</t>
-  </si>
-  <si>
-    <t>HIV age+gender</t>
-  </si>
-  <si>
-    <t>ydvyXLhIbTn</t>
-  </si>
-  <si>
-    <t>Children from TB ward tested for HIV</t>
-  </si>
-  <si>
-    <t>HIV Peadiatric monthly summary</t>
-  </si>
-  <si>
-    <t>HIV Peadriatics</t>
-  </si>
-  <si>
-    <t>HIV Paed age+gender</t>
-  </si>
-  <si>
-    <t>AKJvJehDSb6</t>
-  </si>
-  <si>
-    <t>Children from TB ward with positive HIV result</t>
-  </si>
-  <si>
-    <t>wpKRnvM14KO</t>
-  </si>
-  <si>
-    <t>MCH TB Status</t>
-  </si>
-  <si>
-    <t>srXmZTeJxxT</t>
-  </si>
-  <si>
-    <t>PLHIVs referred for TB screening</t>
-  </si>
-  <si>
-    <t>TB/HIV (VCCT) monthly summary</t>
-  </si>
-  <si>
-    <t>VCCT</t>
-  </si>
-  <si>
-    <t>ZydlV51mGuj</t>
-  </si>
-  <si>
-    <t>PLHIVs referred for TB test (Sputum/CXRay)</t>
-  </si>
-  <si>
-    <t>oxht1VLqF6x</t>
-  </si>
-  <si>
-    <t>PLHIVs with a positive TB result</t>
-  </si>
-  <si>
-    <t>gVfwyHBGWec</t>
-  </si>
-  <si>
-    <t>Received treatment for both TB and HIV</t>
-  </si>
-  <si>
-    <t>ART / ART treatment</t>
-  </si>
-  <si>
-    <t>HmkXnHJxcD1</t>
-  </si>
-  <si>
-    <t>TB Case Definition</t>
-  </si>
-  <si>
-    <t>JFJfrQRwKUH</t>
-  </si>
-  <si>
-    <t>TB Cohort new SS+ completed</t>
-  </si>
-  <si>
-    <t>LwqtuNuXzMO</t>
-  </si>
-  <si>
-    <t>TB Cohort new SS+ cured</t>
-  </si>
-  <si>
-    <t>iGWmygJhJ0W</t>
-  </si>
-  <si>
-    <t>TB Cohort new SS+ defaulted</t>
-  </si>
-  <si>
-    <t>iwKQb6AzcyA</t>
-  </si>
-  <si>
-    <t>TB Cohort new SS+ died</t>
-  </si>
-  <si>
-    <t>iM7agdDyMAv</t>
-  </si>
-  <si>
-    <t>TB Cohort new SS+ failed</t>
-  </si>
-  <si>
-    <t>ax9QMVVaWzT</t>
-  </si>
-  <si>
-    <t>TB Cohort new SS+ registered</t>
-  </si>
-  <si>
-    <t>LvVagpDFHVd</t>
-  </si>
-  <si>
-    <t>TB Cohort new SS+ trans. in</t>
-  </si>
-  <si>
-    <t>D7m8vpzxHDJ</t>
-  </si>
-  <si>
-    <t>TB Disease Classification</t>
-  </si>
-  <si>
-    <t>tHFKyPb1db7</t>
-  </si>
-  <si>
-    <t>TB Extra pulmonary TB</t>
-  </si>
-  <si>
-    <t>U5ubm6PPYrM</t>
-  </si>
-  <si>
-    <t>TB HIV testing done</t>
-  </si>
-  <si>
-    <t>cVs0TJQDBwT</t>
-  </si>
-  <si>
-    <t>TB Known MDR-TB contact</t>
-  </si>
-  <si>
-    <t>Vk1tzSQxvOR</t>
-  </si>
-  <si>
-    <t>TB lab CD4</t>
-  </si>
-  <si>
-    <t>fCXKBdc27Bt</t>
-  </si>
-  <si>
-    <t>TB lab Creatinine</t>
-  </si>
-  <si>
-    <t>lJTx9EZ1dk1</t>
-  </si>
-  <si>
-    <t>Tb lab Glucose</t>
-  </si>
-  <si>
-    <t>fTZFU8cWvb3</t>
-  </si>
-  <si>
-    <t>TB lab Hemoglobin</t>
-  </si>
-  <si>
-    <t>PcdVnX3EthS</t>
-  </si>
-  <si>
-    <t>TB New SS+ cases</t>
-  </si>
-  <si>
-    <t>vAzDOljIN1o</t>
-  </si>
-  <si>
-    <t>TB Previous use of second-line drugs</t>
-  </si>
-  <si>
-    <t>Vacgoqzb0a9</t>
-  </si>
-  <si>
-    <t>TB Referred by community member</t>
-  </si>
-  <si>
-    <t>x4KonEdVrf4</t>
-  </si>
-  <si>
-    <t>TB Referred by other</t>
-  </si>
-  <si>
-    <t>BexcJLSBmoI</t>
-  </si>
-  <si>
-    <t>TB Referred by private provider</t>
-  </si>
-  <si>
-    <t>HihtAAbmIKd</t>
-  </si>
-  <si>
-    <t>TB Referred by public facility</t>
-  </si>
-  <si>
-    <t>V7IfAfgOH9c</t>
-  </si>
-  <si>
-    <t>TB registration group</t>
-  </si>
-  <si>
-    <t>DfxIW8gECPb</t>
-  </si>
-  <si>
-    <t>TB Self referral</t>
-  </si>
-  <si>
-    <t>yLIPuJHRgey</t>
-  </si>
-  <si>
-    <t>TB smear microscopy number of specimen</t>
-  </si>
-  <si>
-    <t>zocHNQIQBIN</t>
-  </si>
-  <si>
-    <t>TB smear microscopy test outcome</t>
-  </si>
-  <si>
-    <t>NzUztyjtUm2</t>
-  </si>
-  <si>
-    <t>TB Smear Negative</t>
-  </si>
-  <si>
-    <t>QmqSvR8y1VP</t>
-  </si>
-  <si>
-    <t>TB Smear not done</t>
-  </si>
-  <si>
-    <t>NRmkLQkTbHw</t>
-  </si>
-  <si>
-    <t>TB Smear Positive T.A.I</t>
-  </si>
-  <si>
-    <t>auVPuAdFCmY</t>
-  </si>
-  <si>
-    <t>TB Smear Positve Failure</t>
-  </si>
-  <si>
-    <t>uwbLjPhducc</t>
-  </si>
-  <si>
-    <t>TB Smear Positve Relapse</t>
-  </si>
-  <si>
-    <t>zJbnrm3kUAk</t>
-  </si>
-  <si>
-    <t>TB Started on ART</t>
-  </si>
-  <si>
-    <t>P6hgV2tSIvi</t>
-  </si>
-  <si>
-    <t>TB Started on CPT</t>
-  </si>
-  <si>
-    <t>lpHeSOA8GUV</t>
-  </si>
-  <si>
-    <t>TB treatment card</t>
-  </si>
-  <si>
-    <t>dWqQVwKJTSu</t>
-  </si>
-  <si>
-    <t>PMTCT HIV positive women received ZDV at ANC</t>
-  </si>
-  <si>
-    <t>PMTCT monthly summary</t>
-  </si>
-  <si>
-    <t>PMTCT / PMTCT ANC</t>
-  </si>
-  <si>
-    <t>HIV age</t>
-  </si>
-  <si>
-    <t>pN3V4jZeCmU</t>
-  </si>
-  <si>
-    <t>HIV related deaths (children)</t>
-  </si>
-  <si>
-    <t>V9bT6YUTrMZ</t>
-  </si>
-  <si>
-    <t>Deaths due to tuberculosis among HIV-negative people (per 100 000 population)</t>
-  </si>
-  <si>
-    <t>oUlFoAVdLgB</t>
-  </si>
-  <si>
-    <t>Number of deaths due to tuberculosis excluding HIV</t>
-  </si>
-  <si>
-    <t>hhevl49MXyA</t>
-  </si>
-  <si>
-    <t>Children from Gen.Paed. ward tested for HIV</t>
-  </si>
-  <si>
-    <t>HL77Pems4Cv</t>
-  </si>
-  <si>
-    <t>Children from Gen.Paed. ward with positive HIV result</t>
-  </si>
-  <si>
-    <t>xFpppWvT43s</t>
-  </si>
-  <si>
-    <t>Children from TFC tested for HIV</t>
-  </si>
-  <si>
-    <t>KWzP8OWYQL7</t>
-  </si>
-  <si>
-    <t>Children from TFC with positive HIV result</t>
-  </si>
-  <si>
-    <t>EnsFXKU7LEW</t>
-  </si>
-  <si>
-    <t>Children HIV 1 positive test</t>
-  </si>
-  <si>
-    <t>e73QxJpd88B</t>
-  </si>
-  <si>
-    <t>Children HIV 1&amp;2 positive test</t>
-  </si>
-  <si>
-    <t>GhsYeB89HaL</t>
-  </si>
-  <si>
-    <t>Children HIV 2 positive test</t>
-  </si>
-  <si>
-    <t>SMrE2ByiyZp</t>
-  </si>
-  <si>
-    <t>Children on exclusive breastfeeding (HIV Paed.)</t>
-  </si>
-  <si>
-    <t>UMexg4VGfaY</t>
-  </si>
-  <si>
-    <t>Children on replacement feeding (HIV Paed.)</t>
-  </si>
-  <si>
-    <t>ESGq1GV8YEE</t>
-  </si>
-  <si>
-    <t>HIV exposed children tested at 12 months</t>
-  </si>
-  <si>
-    <t>ECYnLIh3IdU</t>
-  </si>
-  <si>
-    <t>HIV exposed children tested at 18 months</t>
-  </si>
-  <si>
-    <t>ifTgszmp25q</t>
-  </si>
-  <si>
-    <t>HIV exposed children with positive result at 12 months</t>
-  </si>
-  <si>
-    <t>cxkB6Csdae7</t>
-  </si>
-  <si>
-    <t>HIV exposed children with positive result at 18 months</t>
-  </si>
-  <si>
-    <t>dL7MKVOSCUf</t>
-  </si>
-  <si>
-    <t>HIV exposed infants initiated cotrim from age 6 wks</t>
-  </si>
-  <si>
-    <t>ofqavN7bUXQ</t>
-  </si>
-  <si>
-    <t>HIV infected children given cotrim prophylaxis (18m-18y)</t>
-  </si>
-  <si>
-    <t>PwAOGo407Kq</t>
-  </si>
-  <si>
-    <t>HIV positive children lost to follow-up</t>
-  </si>
-  <si>
-    <t>u6yhzgWPIsj</t>
-  </si>
-  <si>
-    <t>HIV positive women assessed for ART eligibility by CD4 counting</t>
-  </si>
-  <si>
-    <t>CwnEqKR0ebt</t>
-  </si>
-  <si>
-    <t>HIV positive women assessed for ART eligibility by clinical staging</t>
-  </si>
-  <si>
-    <t>o0fOD1HLuv8</t>
-  </si>
-  <si>
-    <t>HIV: counseling</t>
-  </si>
-  <si>
-    <t>HIV Care Monthly</t>
-  </si>
-  <si>
-    <t>HIV Care</t>
-  </si>
-  <si>
-    <t>ZwrIPRUiHEB</t>
-  </si>
-  <si>
-    <t>HIV: currently on care</t>
-  </si>
-  <si>
-    <t>veW7w0xDDOQ</t>
-  </si>
-  <si>
-    <t>HIV: new on care</t>
-  </si>
-  <si>
-    <t>R4KStuS8qt7</t>
-  </si>
-  <si>
-    <t>HIV: testing</t>
-  </si>
-  <si>
-    <t>XB4uzhs4Is4</t>
-  </si>
-  <si>
-    <t>Infants born to HIV Positive mothers (exposed)</t>
-  </si>
-  <si>
-    <t>hDZbpskhqDd</t>
-  </si>
-  <si>
-    <t>MCH HIV Test Type</t>
-  </si>
-  <si>
-    <t>cYGaxwK615G</t>
-  </si>
-  <si>
-    <t>MCH Infant HIV Test Result</t>
-  </si>
-  <si>
-    <t>ZFC9MdnFHFJ</t>
-  </si>
-  <si>
-    <t>PMTCT expected delivery among HIV+ women</t>
-  </si>
-  <si>
-    <t>PMTCT / PMTCT Maternity/Delivery</t>
-  </si>
-  <si>
-    <t>x0PshcPLSk1</t>
-  </si>
-  <si>
-    <t>PMTCT HIV exposed children registered during the course of the month</t>
-  </si>
-  <si>
-    <t>PMTCT / PMTCT Postnatal</t>
-  </si>
-  <si>
-    <t>gnKnwQbY3UK</t>
-  </si>
-  <si>
-    <t>PMTCT HIV positive w. received ART for own health</t>
-  </si>
-  <si>
-    <t>hxh8X16Gvip</t>
-  </si>
-  <si>
-    <t>PMTCT HIV positive Women received ZDV and 3TC during labor</t>
-  </si>
-  <si>
-    <t>WqbXHjN95Xw</t>
-  </si>
-  <si>
-    <t>PMTCT male partners tested for HIV</t>
-  </si>
-  <si>
-    <t>MIKpDxt5ZvE</t>
-  </si>
-  <si>
-    <t>PMTCT male partners tested HIV positive</t>
-  </si>
-  <si>
-    <t>RoCtZpDLVS7</t>
-  </si>
-  <si>
-    <t>PMTCT No HIV women who delivered in the health facility (CS)</t>
-  </si>
-  <si>
-    <t>tAQe5dZ6wRv</t>
-  </si>
-  <si>
-    <t>PMTCT No HIV women who delivered in the health facility (Normal)</t>
-  </si>
-  <si>
-    <t>rFTnRXMFgxC</t>
-  </si>
-  <si>
-    <t>PMTCT No of expected HIV exposed children</t>
-  </si>
-  <si>
-    <t>TvQ1myd6oTE</t>
-  </si>
-  <si>
-    <t>PMTCT women HIV positve</t>
-  </si>
-  <si>
-    <t>fxOM6VBQhBy</t>
-  </si>
-  <si>
-    <t>PMTCT women tested for HIV</t>
-  </si>
-  <si>
-    <t>jRo4KlnCKeX</t>
-  </si>
-  <si>
-    <t>WHOMCH HIV counselling provided - negative</t>
-  </si>
-  <si>
-    <t>yEmfXF9HJ1M</t>
-  </si>
-  <si>
-    <t>WHOMCH HIV counselling provided - positive</t>
-  </si>
-  <si>
-    <t>Itl05OEupgQ</t>
-  </si>
-  <si>
-    <t>WHOMCH HIV rapid test</t>
-  </si>
-  <si>
-    <t>yq1qT0NdjYQ</t>
-  </si>
-  <si>
-    <t>WHOMCH HIV test results provided to patient</t>
-  </si>
-  <si>
-    <t>VFffa31SKjH</t>
-  </si>
-  <si>
-    <t>WHOMCH Previously known HIV-positive</t>
-  </si>
-  <si>
-    <t>UOlfIjgN8X6</t>
-  </si>
-  <si>
-    <t>Fully Immunized child</t>
-  </si>
-  <si>
-    <t>Child Health</t>
-  </si>
-  <si>
-    <t>ICS Children / Immunization</t>
-  </si>
-  <si>
-    <t>Location and age group</t>
-  </si>
-  <si>
-    <t>zzGNbeMnTd6</t>
-  </si>
-  <si>
-    <t>WHOMCH Autoimmune disease</t>
-  </si>
-  <si>
-    <t>xoji9tjIrIj</t>
-  </si>
-  <si>
-    <t>WHOMCH Screening for autoimmune disease performed</t>
-  </si>
-  <si>
-    <t>DF0B07U2lPZ</t>
-  </si>
-  <si>
-    <t>CMC Counseling rooms in FP and CAC service units ensure client privacy and confidentiality</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
+  <si>
+    <t xml:space="preserve">dataElement.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports_Last_Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataSets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categoryCombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wZwzzRnr9N4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid diagnostic test for Malaria positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morbidity Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFM5H0wNq3t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated at PHU with ACT &lt; 24 hrs new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria / Morbidity / New cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d92E7cpMvdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated at PHU with ACT &gt; 24 hrs new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qk9nnX0i7lZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid diagnostic test for Malaria negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x8gsvCKjGdZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated in community with ACT &lt;24 hrs new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmh0BSu3vaV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated at PHU without ACT &lt; 24 hrs new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CecywZWejT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated at PHU with ACT &lt; 24 hrs f-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow-up / Malaria / Morbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGUJY3jQdJ6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated at PHU without ACT &gt; 24 hrs new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bVkFujnp3F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated at PHU with ACT &gt; 24 hrs f-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kcbTUfABUck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated in community with ACT &gt;24 hrs new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vq2qO3eTrNi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDSR Malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDSR Weekly; IDSR Weekly (Start Wednesday)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iIBbZPAqnMt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated at PHU without ACT &lt; 24 hrs f-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgi981WXhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated at PHU without ACT &gt; 24 hrs f-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TQnDEASFsVH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated in community with ACT &lt;24 hrs f-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vzcahelbU5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria treated in community with ACT &gt;24 hrs f-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hnwWyM4gDSg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria referrals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria / Morbidity / Referrals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morbidity Referrals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6nrJANOqMw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality &lt; 5 years; Mortality &lt; 5 years by age group; Mortality &lt; 5 years by gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality / Mortality &lt; 5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4K11MFEWtw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient malaria cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient Morbidity/Mortality Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient morbidity/mortality aggregates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under 5/5 and above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wWy5TE9cQ0V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient malaria deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a0WhmKHnZ6J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria (Deaths &lt; 5 yrs) Narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality &lt; 5 years Narratives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality Narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nXJJZNVAy0Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria Outbreak Threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O7OiONht8T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment Malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHW5v2Iljtw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Malaria prophylaxis given in second trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zsWyjzmBLGz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Malaria prophylaxis given in third trimester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cYeuwXTCPkU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC 2nd visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproductive Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC / Reproductive health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed/Outreach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbfJHSPpUQD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC 1st visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jtf34kNZhzP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC 3rd visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rbkr8PL0rwM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Folate given at ANC 3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproductive health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCVSHjcml9g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albendazole given at ANC (2nd trimester)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaemia / Reproductive health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bqK6eSIwo3h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPT 1st dose given at PHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V37YqbqpEhV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPT 2nd dose given at PHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfdmMSPBgLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC 4th or more visits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ybzlGLjWwnK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLITN given at ANC 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yTHydhurQQU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPT 1st dose given by TBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA7WeFZnUci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPT 2nd dose given by TBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uz8dqEzuxyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassa fever referrals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassa Fever / Morbidity / Referrals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NpJtsQkMTm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louse Borne Typhus - Relapsing fever (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCteyX2xpMf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassa fever new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassa Fever / Morbidity / New cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WQSdEl9xUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNCH ANC Attendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNCH Quarterly Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNCH Aggregates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iYCGteGcr6Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNCH ANC registrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dVdxnTNL2jZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassa fever follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow-up / Lassa Fever / Morbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A21lT9x7pmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabin fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g9eOBujte1U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH ANC Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lNNb3truQoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH IPT dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QhKQD2wHowC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNCH Cases of anaemia during ANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aLF5wmCZrKF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNCH Heamoglobin checks performed during ANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hKZh1et5n7v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDT test result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zg2HS37R0S0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Cohort new SS+ trans out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Facility Reporting Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sVDDqpaKwBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB No. of suspects screened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yf4u4QOIdsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART entry point: TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART monthly summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART / ART enrollment / ART entry points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV age+gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ydvyXLhIbTn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children from TB ward tested for HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Peadiatric monthly summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Peadriatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Paed age+gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKJvJehDSb6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children from TB ward with positive HIV result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wpKRnvM14KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH TB Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srXmZTeJxxT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLHIVs referred for TB screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB/HIV (VCCT) monthly summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZydlV51mGuj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLHIVs referred for TB test (Sputum/CXRay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxht1VLqF6x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLHIVs with a positive TB result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gVfwyHBGWec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received treatment for both TB and HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART / ART treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HmkXnHJxcD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Case Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JFJfrQRwKUH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Cohort new SS+ completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LwqtuNuXzMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Cohort new SS+ cured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iGWmygJhJ0W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Cohort new SS+ defaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iwKQb6AzcyA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Cohort new SS+ died</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iM7agdDyMAv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Cohort new SS+ failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ax9QMVVaWzT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Cohort new SS+ registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LvVagpDFHVd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Cohort new SS+ trans. in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7m8vpzxHDJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Disease Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tHFKyPb1db7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Extra pulmonary TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5ubm6PPYrM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB HIV testing done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cVs0TJQDBwT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Known MDR-TB contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vk1tzSQxvOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB lab CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fCXKBdc27Bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB lab Creatinine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lJTx9EZ1dk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tb lab Glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTZFU8cWvb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB lab Hemoglobin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PcdVnX3EthS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB New SS+ cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vAzDOljIN1o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Previous use of second-line drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacgoqzb0a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Referred by community member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x4KonEdVrf4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Referred by other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BexcJLSBmoI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Referred by private provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HihtAAbmIKd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Referred by public facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V7IfAfgOH9c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB registration group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DfxIW8gECPb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Self referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yLIPuJHRgey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB smear microscopy number of specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zocHNQIQBIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB smear microscopy test outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NzUztyjtUm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Smear Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QmqSvR8y1VP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Smear not done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRmkLQkTbHw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Smear Positive T.A.I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auVPuAdFCmY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Smear Positve Failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uwbLjPhducc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Smear Positve Relapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zJbnrm3kUAk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Started on ART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6hgV2tSIvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Started on CPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpHeSOA8GUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB treatment card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dWqQVwKJTSu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT HIV positive women received ZDV at ANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT monthly summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT / PMTCT ANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pN3V4jZeCmU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV related deaths (children)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V9bT6YUTrMZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaths due to tuberculosis among HIV-negative people (per 100 000 population)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oUlFoAVdLgB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of deaths due to tuberculosis excluding HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhevl49MXyA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children from Gen.Paed. ward tested for HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HL77Pems4Cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children from Gen.Paed. ward with positive HIV result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xFpppWvT43s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children from TFC tested for HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWzP8OWYQL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children from TFC with positive HIV result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnsFXKU7LEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children HIV 1 positive test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e73QxJpd88B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children HIV 1&amp;2 positive test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GhsYeB89HaL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children HIV 2 positive test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMrE2ByiyZp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children on exclusive breastfeeding (HIV Paed.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMexg4VGfaY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children on replacement feeding (HIV Paed.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESGq1GV8YEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV exposed children tested at 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECYnLIh3IdU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV exposed children tested at 18 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifTgszmp25q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV exposed children with positive result at 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cxkB6Csdae7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV exposed children with positive result at 18 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dL7MKVOSCUf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV exposed infants initiated cotrim from age 6 wks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ofqavN7bUXQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV infected children given cotrim prophylaxis (18m-18y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PwAOGo407Kq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV positive children lost to follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u6yhzgWPIsj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV positive women assessed for ART eligibility by CD4 counting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CwnEqKR0ebt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV positive women assessed for ART eligibility by clinical staging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o0fOD1HLuv8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV: counseling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Care Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZwrIPRUiHEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV: currently on care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veW7w0xDDOQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV: new on care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4KStuS8qt7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV: testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XB4uzhs4Is4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infants born to HIV Positive mothers (exposed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hDZbpskhqDd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH HIV Test Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cYGaxwK615G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH Infant HIV Test Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZFC9MdnFHFJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT expected delivery among HIV+ women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT / PMTCT Maternity/Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x0PshcPLSk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT HIV exposed children registered during the course of the month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT / PMTCT Postnatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnKnwQbY3UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT HIV positive w. received ART for own health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hxh8X16Gvip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT HIV positive Women received ZDV and 3TC during labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WqbXHjN95Xw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT male partners tested for HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIKpDxt5ZvE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT male partners tested HIV positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoCtZpDLVS7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT No HIV women who delivered in the health facility (CS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAQe5dZ6wRv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT No HIV women who delivered in the health facility (Normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rFTnRXMFgxC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT No of expected HIV exposed children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TvQ1myd6oTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT women HIV positve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fxOM6VBQhBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT women tested for HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jRo4KlnCKeX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH HIV counselling provided - negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yEmfXF9HJ1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH HIV counselling provided - positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itl05OEupgQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH HIV rapid test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yq1qT0NdjYQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH HIV test results provided to patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VFffa31SKjH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Previously known HIV-positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOlfIjgN8X6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully Immunized child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICS Children / Immunization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location and age group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zzGNbeMnTd6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Autoimmune disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xoji9tjIrIj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Screening for autoimmune disease performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF0B07U2lPZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Counseling rooms in FP and CAC service units ensure client privacy and confidentiality</t>
   </si>
   <si>
     <t xml:space="preserve">Clinical Monitoring Checklist </t>
   </si>
   <si>
-    <t>ylTxB8pDdW6</t>
-  </si>
-  <si>
-    <t>CMC Procedure rooms in FP and CAC service units ensure client privacy and confidentiality</t>
-  </si>
-  <si>
-    <t>fgPOFbi37BM</t>
-  </si>
-  <si>
-    <t>PFS Lack of confidence</t>
-  </si>
-  <si>
-    <t>VDxTE7l7sc7</t>
-  </si>
-  <si>
-    <t>PFS Lack of confidence - Arrangement for peer mentoring on-site</t>
-  </si>
-  <si>
-    <t>Ws36Dp6gHA1</t>
-  </si>
-  <si>
-    <t>PFS Lack of confidence - Clinical coaching</t>
-  </si>
-  <si>
-    <t>KRJeVOPBy6t</t>
-  </si>
-  <si>
-    <t>PFS Lack of confidence - Encouragement</t>
-  </si>
-  <si>
-    <t>klEz81wXFoU</t>
-  </si>
-  <si>
-    <t>WHOMCH Confirmed or suspected infection</t>
-  </si>
-  <si>
-    <t>z9auvNRRWQJ</t>
-  </si>
-  <si>
-    <t>WHOMCH Speculum examination test result for suspected pPROM</t>
-  </si>
-  <si>
-    <t>yV91JsUXuju</t>
-  </si>
-  <si>
-    <t>WHOMCH Speculum examination test result for suspected PROM</t>
-  </si>
-  <si>
-    <t>cF0XbuZkUcC</t>
-  </si>
-  <si>
-    <t>WHOMCH Suspected pPROM</t>
-  </si>
-  <si>
-    <t>DwWIh6D3fSr</t>
-  </si>
-  <si>
-    <t>WHOMCH Suspected PROM</t>
-  </si>
-  <si>
-    <t>IyAKwL6Zjkl</t>
-  </si>
-  <si>
-    <t>Insured patient</t>
-  </si>
-  <si>
-    <t>ONgKakbp7wR</t>
-  </si>
-  <si>
-    <t>PMTCT women seen for 1st ANC</t>
-  </si>
-  <si>
-    <t>zCPMzMGWyHU</t>
-  </si>
-  <si>
-    <t>PMTCT positive w. referred for FP from ANC</t>
-  </si>
-  <si>
-    <t>L4G4X567SeK</t>
-  </si>
-  <si>
-    <t>PMTCT positive w. offered FP during ANC/Post natal</t>
-  </si>
-  <si>
-    <t>FUrCpcvMAmC</t>
-  </si>
-  <si>
-    <t>Maternal death</t>
-  </si>
-  <si>
-    <t>Pregnancy complications and deaths / Reproductive health</t>
-  </si>
-  <si>
-    <t>Maternal deaths</t>
-  </si>
-  <si>
-    <t>eY5ehpbEsB7</t>
-  </si>
-  <si>
-    <t>Cholera (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>Cholera / Mortality / Mortality &lt; 5 years</t>
-  </si>
-  <si>
-    <t>Ix2HsbDMLea</t>
-  </si>
-  <si>
-    <t>Dysentery (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>f7n9E0hX8qk</t>
-  </si>
-  <si>
-    <t>Measles (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>MSZuQ1mTsia</t>
-  </si>
-  <si>
-    <t>Meningitis (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>lXolhoWewYH</t>
-  </si>
-  <si>
-    <t>Plague (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>ZRVfMoPKK05</t>
-  </si>
-  <si>
-    <t>Inpatient deaths</t>
-  </si>
-  <si>
-    <t>jVDAvs6kIAP</t>
-  </si>
-  <si>
-    <t>Rabies (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>FGdTDgQrsBy</t>
-  </si>
-  <si>
-    <t>PMTCT reported mother death</t>
-  </si>
-  <si>
-    <t>ibL7BD2vn2C</t>
-  </si>
-  <si>
-    <t>ART treatment stopped due to death</t>
-  </si>
-  <si>
-    <t>FTRrcoaog83</t>
-  </si>
-  <si>
-    <t>Accute Flaccid Paralysis (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>Commodities Maternal Health / Mortality / Mortality &lt; 5 years</t>
-  </si>
-  <si>
-    <t>Vp12ncSU1Av</t>
-  </si>
-  <si>
-    <t>Tetanus Neonatal (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>hM4ya5T2AqX</t>
-  </si>
-  <si>
-    <t>Tetanus Other (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>USBq0VHSkZq</t>
-  </si>
-  <si>
-    <t>Yellow Fever (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>LjNlMTl9Nq9</t>
-  </si>
-  <si>
-    <t>Animal Bites - Rabid (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>mxc1T932aWM</t>
-  </si>
-  <si>
-    <t>Cholera (Deaths &lt; 5 yrs) Narrative</t>
-  </si>
-  <si>
-    <t>FaVPxpiCab5</t>
-  </si>
-  <si>
-    <t>Measles (Deaths &lt; 5 yrs) Narrative</t>
-  </si>
-  <si>
-    <t>iT8n0tI3nRW</t>
-  </si>
-  <si>
-    <t>Plague (Deaths &lt; 5 yrs) Narrative</t>
-  </si>
-  <si>
-    <t>d6GUgNWCDfl</t>
-  </si>
-  <si>
-    <t>Pregnancy-related deaths (6 weeks of birth) 10-19y at PHU</t>
-  </si>
-  <si>
-    <t>Deaths / Pregnancy-related (PHUF5)</t>
-  </si>
-  <si>
-    <t>z1q4VpzJvEh</t>
-  </si>
-  <si>
-    <t>Pregnancy-related deaths (6 weeks of birth) 10-19y in comm.</t>
-  </si>
-  <si>
-    <t>pnMGI9pJTxH</t>
-  </si>
-  <si>
-    <t>Pregnancy-related deaths (6 weeks of birth) 20-35y at PHU</t>
-  </si>
-  <si>
-    <t>ZuAqHa7ekka</t>
-  </si>
-  <si>
-    <t>Pregnancy-related deaths (6 weeks of birth) 20-35y in comm.</t>
-  </si>
-  <si>
-    <t>ZjLFpnq46QF</t>
-  </si>
-  <si>
-    <t>Pregnancy-related deaths (6 weeks of birth) 35+ y at PHU</t>
-  </si>
-  <si>
-    <t>GHvwvsJzV4x</t>
-  </si>
-  <si>
-    <t>Pregnancy-related deaths (6 weeks of birth) 35+ y in comm.</t>
-  </si>
-  <si>
-    <t>Yy9NtNfwYZJ</t>
-  </si>
-  <si>
-    <t>Typhoid (Deaths &lt; 5 yrs)</t>
-  </si>
-  <si>
-    <t>rj9mw1J6sBg</t>
-  </si>
-  <si>
-    <t>Yellow Fever (Deaths &lt; 5 yrs) Narrative</t>
-  </si>
-  <si>
-    <t>vg6pdjObxsm</t>
-  </si>
-  <si>
-    <t>Population of women of child bearing age (WRA)</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Population Estimates</t>
-  </si>
-  <si>
-    <t>WUg3MYWQ7pt</t>
-  </si>
-  <si>
-    <t>Total Population</t>
-  </si>
-  <si>
-    <t>DTVRnCGamkV</t>
-  </si>
-  <si>
-    <t>Total population &lt; 1 year</t>
-  </si>
-  <si>
-    <t>DTtCy7Nx5jH</t>
-  </si>
-  <si>
-    <t>Total population &lt; 5 years</t>
-  </si>
-  <si>
-    <t>sTzxtq72Moq</t>
-  </si>
-  <si>
-    <t>Prevalence of tuberculosis (per 100 000 population)</t>
-  </si>
-  <si>
-    <t>FTINmL2lehN</t>
-  </si>
-  <si>
-    <t>Stock PHU dispensed OPV</t>
-  </si>
-  <si>
-    <t>EPI Stock</t>
-  </si>
-  <si>
-    <t>Stock PHU</t>
-  </si>
-  <si>
-    <t>lVknokmR4Ip</t>
-  </si>
-  <si>
-    <t>Stock PHU dispensed Measles</t>
-  </si>
-  <si>
-    <t>p1MDHOT6ENy</t>
-  </si>
-  <si>
-    <t>Stock PHU dispensed  BCG</t>
-  </si>
-  <si>
-    <t>nGCLjZDn0Q4</t>
-  </si>
-  <si>
-    <t>Stock PHU received OPV</t>
-  </si>
-  <si>
-    <t>XNrjXqZrHD8</t>
-  </si>
-  <si>
-    <t>Stock PHU received Measles</t>
-  </si>
-  <si>
-    <t>axVhq1itoQD</t>
-  </si>
-  <si>
-    <t>Stock PHU received  BCG</t>
-  </si>
-  <si>
-    <t>iuSIObmKutb</t>
-  </si>
-  <si>
-    <t>Stock PHU start balance OPV</t>
-  </si>
-  <si>
-    <t>vEAo4KwsAzl</t>
-  </si>
-  <si>
-    <t>Stock PHU start balance Measles</t>
-  </si>
-  <si>
-    <t>t99PL3gUxIl</t>
-  </si>
-  <si>
-    <t>Stock PHU start balance BCG</t>
-  </si>
-  <si>
-    <t>cZnQDuF3IDz</t>
-  </si>
-  <si>
-    <t>Stock PHU discarded BCG</t>
-  </si>
-  <si>
-    <t>Stock discarded</t>
-  </si>
-  <si>
-    <t>FvKdfA2SuWI</t>
-  </si>
-  <si>
-    <t>Stock PHU discarded Measles</t>
-  </si>
-  <si>
-    <t>WVrH6j3Wfye</t>
-  </si>
-  <si>
-    <t>Stock PHU discarded OPV</t>
-  </si>
-  <si>
-    <t>soACnRV9gOI</t>
-  </si>
-  <si>
-    <t>ART entry point: No transfer out</t>
-  </si>
-  <si>
-    <t>rZiGA1lv7Ah</t>
-  </si>
-  <si>
-    <t>CMC FP and CAC commodity requests correctly based on previous consumption / stock at hand</t>
-  </si>
-  <si>
-    <t>bZgd4FWFsQI</t>
-  </si>
-  <si>
-    <t>CMC Stock-out - Contraceptive pills</t>
-  </si>
-  <si>
-    <t>SDQMvEIFZJH</t>
-  </si>
-  <si>
-    <t>CMC Stock-out - Female condoms</t>
-  </si>
-  <si>
-    <t>CsORyrmcScJ</t>
-  </si>
-  <si>
-    <t>CMC Stock-out - Implanon</t>
-  </si>
-  <si>
-    <t>lZEg2kLmHnz</t>
-  </si>
-  <si>
-    <t>CMC Stock-out - Injectables (DMPA)</t>
-  </si>
-  <si>
-    <t>wwh5ng6o81Z</t>
-  </si>
-  <si>
-    <t>CMC Stock-out - IUD</t>
-  </si>
-  <si>
-    <t>fuhMFSpMGzx</t>
-  </si>
-  <si>
-    <t>CMC Stock-out - Jadelle or Sino-Implant</t>
-  </si>
-  <si>
-    <t>h0RS9WyBGPh</t>
-  </si>
-  <si>
-    <t>CMC Stock-out - Male condoms</t>
-  </si>
-  <si>
-    <t>es9P4K9xRCF</t>
-  </si>
-  <si>
-    <t>CMC Stock-out - Other (specify)</t>
+    <t xml:space="preserve">ylTxB8pDdW6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Procedure rooms in FP and CAC service units ensure client privacy and confidentiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgPOFbi37BM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFS Lack of confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDxTE7l7sc7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFS Lack of confidence - Arrangement for peer mentoring on-site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ws36Dp6gHA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFS Lack of confidence - Clinical coaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRJeVOPBy6t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFS Lack of confidence - Encouragement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klEz81wXFoU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Confirmed or suspected infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z9auvNRRWQJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Speculum examination test result for suspected pPROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yV91JsUXuju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Speculum examination test result for suspected PROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cF0XbuZkUcC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Suspected pPROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DwWIh6D3fSr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOMCH Suspected PROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IyAKwL6Zjkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insured patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONgKakbp7wR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT women seen for 1st ANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zCPMzMGWyHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT positive w. referred for FP from ANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4G4X567SeK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT positive w. offered FP during ANC/Post natal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUrCpcvMAmC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternal death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnancy complications and deaths / Reproductive health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternal deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eY5ehpbEsB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholera (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholera / Mortality / Mortality &lt; 5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ix2HsbDMLea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dysentery (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7n9E0hX8qk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measles (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSZuQ1mTsia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningitis (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lXolhoWewYH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plague (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZRVfMoPKK05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jVDAvs6kIAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabies (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGdTDgQrsBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT reported mother death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibL7BD2vn2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART treatment stopped due to death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTRrcoaog83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accute Flaccid Paralysis (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commodities Maternal Health / Mortality / Mortality &lt; 5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vp12ncSU1Av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetanus Neonatal (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hM4ya5T2AqX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetanus Other (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBq0VHSkZq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Fever (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LjNlMTl9Nq9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Bites - Rabid (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mxc1T932aWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholera (Deaths &lt; 5 yrs) Narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaVPxpiCab5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measles (Deaths &lt; 5 yrs) Narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iT8n0tI3nRW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plague (Deaths &lt; 5 yrs) Narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6GUgNWCDfl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnancy-related deaths (6 weeks of birth) 10-19y at PHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaths / Pregnancy-related (PHUF5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z1q4VpzJvEh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnancy-related deaths (6 weeks of birth) 10-19y in comm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnMGI9pJTxH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnancy-related deaths (6 weeks of birth) 20-35y at PHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZuAqHa7ekka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnancy-related deaths (6 weeks of birth) 20-35y in comm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZjLFpnq46QF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnancy-related deaths (6 weeks of birth) 35+ y at PHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHvwvsJzV4x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnancy-related deaths (6 weeks of birth) 35+ y in comm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yy9NtNfwYZJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typhoid (Deaths &lt; 5 yrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rj9mw1J6sBg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Fever (Deaths &lt; 5 yrs) Narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vg6pdjObxsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population of women of child bearing age (WRA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUg3MYWQ7pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTVRnCGamkV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total population &lt; 1 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTtCy7Nx5jH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total population &lt; 5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sTzxtq72Moq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalence of tuberculosis (per 100 000 population)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTINmL2lehN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU dispensed OPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lVknokmR4Ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU dispensed Measles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1MDHOT6ENy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU dispensed  BCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nGCLjZDn0Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU received OPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XNrjXqZrHD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU received Measles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axVhq1itoQD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU received  BCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iuSIObmKutb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU start balance OPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vEAo4KwsAzl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU start balance Measles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t99PL3gUxIl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU start balance BCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cZnQDuF3IDz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU discarded BCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock discarded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FvKdfA2SuWI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU discarded Measles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WVrH6j3Wfye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock PHU discarded OPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soACnRV9gOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART entry point: No transfer out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rZiGA1lv7Ah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC FP and CAC commodity requests correctly based on previous consumption / stock at hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bZgd4FWFsQI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Stock-out - Contraceptive pills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDQMvEIFZJH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Stock-out - Female condoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsORyrmcScJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Stock-out - Implanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lZEg2kLmHnz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Stock-out - Injectables (DMPA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wwh5ng6o81Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Stock-out - IUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuhMFSpMGzx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Stock-out - Jadelle or Sino-Implant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h0RS9WyBGPh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Stock-out - Male condoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es9P4K9xRCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC Stock-out - Other (specify)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1524,15 +1517,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1814,14 +1798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1847,17 +1831,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0.61176704217215505</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>0.611767042172155</v>
+      </c>
+      <c r="D2" t="n">
         <v>33887</v>
       </c>
       <c r="E2" t="s">
@@ -1866,21 +1850,22 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2"/>
       <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0.53726169844020799</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>0.537261698440208</v>
+      </c>
+      <c r="D3" t="n">
         <v>29760</v>
       </c>
       <c r="E3" t="s">
@@ -1896,17 +1881,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>0.44414355863662602</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>0.444143558636626</v>
+      </c>
+      <c r="D4" t="n">
         <v>24602</v>
       </c>
       <c r="E4" t="s">
@@ -1922,17 +1907,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>0.42484474292316599</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>0.424844742923166</v>
+      </c>
+      <c r="D5" t="n">
         <v>23533</v>
       </c>
       <c r="E5" t="s">
@@ -1941,18 +1926,20 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="B6"/>
+      <c r="C6" t="n">
         <v>0.193963027151935</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>10744</v>
       </c>
       <c r="E6" t="s">
@@ -1968,14 +1955,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
-        <v>0.18345609474292299</v>
-      </c>
-      <c r="D7">
+      <c r="B7"/>
+      <c r="C7" t="n">
+        <v>0.183456094742923</v>
+      </c>
+      <c r="D7" t="n">
         <v>10162</v>
       </c>
       <c r="E7" t="s">
@@ -1991,14 +1979,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>0.17525996533795499</v>
-      </c>
-      <c r="D8">
+      <c r="B8"/>
+      <c r="C8" t="n">
+        <v>0.175259965337955</v>
+      </c>
+      <c r="D8" t="n">
         <v>9708</v>
       </c>
       <c r="E8" t="s">
@@ -2014,14 +2003,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
-        <v>0.16345320623916801</v>
-      </c>
-      <c r="D9">
+      <c r="B9"/>
+      <c r="C9" t="n">
+        <v>0.163453206239168</v>
+      </c>
+      <c r="D9" t="n">
         <v>9054</v>
       </c>
       <c r="E9" t="s">
@@ -2037,14 +2027,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="B10"/>
+      <c r="C10" t="n">
         <v>0.145183419988446</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>8042</v>
       </c>
       <c r="E10" t="s">
@@ -2060,14 +2051,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
-        <v>0.13198656845753901</v>
-      </c>
-      <c r="D11">
+      <c r="B11"/>
+      <c r="C11" t="n">
+        <v>0.131986568457539</v>
+      </c>
+      <c r="D11" t="n">
         <v>7311</v>
       </c>
       <c r="E11" t="s">
@@ -2083,14 +2075,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="C12">
-        <v>7.4424069905997606E-2</v>
-      </c>
-      <c r="D12">
+      <c r="B12"/>
+      <c r="C12" t="n">
+        <v>0.0744240699059976</v>
+      </c>
+      <c r="D12" t="n">
         <v>4497</v>
       </c>
       <c r="E12" t="s">
@@ -2106,14 +2099,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="C13">
-        <v>6.8999133448873498E-2</v>
-      </c>
-      <c r="D13">
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>0.0689991334488735</v>
+      </c>
+      <c r="D13" t="n">
         <v>3822</v>
       </c>
       <c r="E13" t="s">
@@ -2129,14 +2123,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="C14">
-        <v>6.3583188908145599E-2</v>
-      </c>
-      <c r="D14">
+      <c r="B14"/>
+      <c r="C14" t="n">
+        <v>0.0635831889081456</v>
+      </c>
+      <c r="D14" t="n">
         <v>3522</v>
       </c>
       <c r="E14" t="s">
@@ -2152,14 +2147,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="C15">
-        <v>5.5477325245522797E-2</v>
-      </c>
-      <c r="D15">
+      <c r="B15"/>
+      <c r="C15" t="n">
+        <v>0.0554773252455228</v>
+      </c>
+      <c r="D15" t="n">
         <v>3073</v>
       </c>
       <c r="E15" t="s">
@@ -2175,14 +2171,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="C16">
-        <v>3.9410023108029997E-2</v>
-      </c>
-      <c r="D16">
+      <c r="B16"/>
+      <c r="C16" t="n">
+        <v>0.03941002310803</v>
+      </c>
+      <c r="D16" t="n">
         <v>2183</v>
       </c>
       <c r="E16" t="s">
@@ -2198,14 +2195,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="C17">
-        <v>3.1593009820912801E-2</v>
-      </c>
-      <c r="D17">
+      <c r="B17"/>
+      <c r="C17" t="n">
+        <v>0.0315930098209128</v>
+      </c>
+      <c r="D17" t="n">
         <v>875</v>
       </c>
       <c r="E17" t="s">
@@ -2221,14 +2219,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
-        <v>1.07388316151203E-3</v>
-      </c>
-      <c r="D18">
+      <c r="B18"/>
+      <c r="C18" t="n">
+        <v>0.00107388316151203</v>
+      </c>
+      <c r="D18" t="n">
         <v>15</v>
       </c>
       <c r="E18" t="s">
@@ -2244,14 +2243,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="C19">
-        <v>7.8954923916164195E-4</v>
-      </c>
-      <c r="D19">
+      <c r="B19"/>
+      <c r="C19" t="n">
+        <v>0.000789549239161642</v>
+      </c>
+      <c r="D19" t="n">
         <v>22</v>
       </c>
       <c r="E19" t="s">
@@ -2267,14 +2267,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="C20">
-        <v>3.58886017800746E-4</v>
-      </c>
-      <c r="D20">
+      <c r="B20"/>
+      <c r="C20" t="n">
+        <v>0.000358886017800746</v>
+      </c>
+      <c r="D20" t="n">
         <v>10</v>
       </c>
       <c r="E20" t="s">
@@ -2290,14 +2291,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>61</v>
       </c>
+      <c r="B21"/>
       <c r="C21" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -2313,92 +2315,101 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>65</v>
       </c>
+      <c r="B22"/>
       <c r="C22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>66</v>
       </c>
+      <c r="F22"/>
+      <c r="G22"/>
       <c r="H22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>67</v>
       </c>
+      <c r="B23"/>
       <c r="C23" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>68</v>
       </c>
+      <c r="F23"/>
+      <c r="G23"/>
       <c r="H23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>69</v>
       </c>
+      <c r="B24"/>
       <c r="C24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
       </c>
+      <c r="F24"/>
+      <c r="G24"/>
       <c r="H24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
+      <c r="B25"/>
       <c r="C25" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
       </c>
+      <c r="F25"/>
+      <c r="G25"/>
       <c r="H25" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2424,41 +2435,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>358</v>
       </c>
+      <c r="B2"/>
       <c r="C2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>359</v>
       </c>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2484,14 +2495,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="C2">
-        <v>9.3876372039283697E-4</v>
-      </c>
-      <c r="D2">
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>0.000938763720392837</v>
+      </c>
+      <c r="D2" t="n">
         <v>26</v>
       </c>
       <c r="E2" t="s">
@@ -2507,14 +2519,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
-      <c r="C3">
-        <v>9.3069873997709E-4</v>
-      </c>
-      <c r="D3">
+      <c r="B3"/>
+      <c r="C3" t="n">
+        <v>0.00093069873997709</v>
+      </c>
+      <c r="D3" t="n">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -2530,14 +2543,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="C4">
-        <v>8.1239168110918498E-4</v>
-      </c>
-      <c r="D4">
+      <c r="B4"/>
+      <c r="C4" t="n">
+        <v>0.000812391681109185</v>
+      </c>
+      <c r="D4" t="n">
         <v>45</v>
       </c>
       <c r="E4" t="s">
@@ -2553,14 +2567,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>115</v>
       </c>
-      <c r="C5">
-        <v>2.34690930098209E-4</v>
-      </c>
-      <c r="D5">
+      <c r="B5"/>
+      <c r="C5" t="n">
+        <v>0.000234690930098209</v>
+      </c>
+      <c r="D5" t="n">
         <v>13</v>
       </c>
       <c r="E5" t="s">
@@ -2576,41 +2591,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>118</v>
       </c>
+      <c r="B6"/>
       <c r="C6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>119</v>
       </c>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2636,14 +2651,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="C2">
-        <v>4.30663221360896E-4</v>
-      </c>
-      <c r="D2">
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>0.000430663221360896</v>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -2661,22 +2677,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2702,17 +2715,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0.67304642445213403</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>0.673046424452134</v>
+      </c>
+      <c r="D2" t="n">
         <v>18673</v>
       </c>
       <c r="E2" t="s">
@@ -2728,17 +2741,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0.66814446366781999</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>0.66814446366782</v>
+      </c>
+      <c r="D3" t="n">
         <v>18537</v>
       </c>
       <c r="E3" t="s">
@@ -2754,17 +2767,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>0.62939734717416396</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>0.629397347174164</v>
+      </c>
+      <c r="D4" t="n">
         <v>17462</v>
       </c>
       <c r="E4" t="s">
@@ -2780,17 +2793,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>0.62611735870818896</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>0.626117358708189</v>
+      </c>
+      <c r="D5" t="n">
         <v>17371</v>
       </c>
       <c r="E5" t="s">
@@ -2806,17 +2819,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>0.56275230680507504</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>0.562752306805075</v>
+      </c>
+      <c r="D6" t="n">
         <v>15613</v>
       </c>
       <c r="E6" t="s">
@@ -2832,17 +2845,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0.55799452133794702</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>0.557994521337947</v>
+      </c>
+      <c r="D7" t="n">
         <v>15481</v>
       </c>
       <c r="E7" t="s">
@@ -2858,17 +2871,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>0.51913927335640098</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>0.519139273356401</v>
+      </c>
+      <c r="D8" t="n">
         <v>14403</v>
       </c>
       <c r="E8" t="s">
@@ -2884,17 +2897,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.437139561707036</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>12128</v>
       </c>
       <c r="E9" t="s">
@@ -2910,17 +2923,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>0.28910755478662098</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>0.289107554786621</v>
+      </c>
+      <c r="D10" t="n">
         <v>8021</v>
       </c>
       <c r="E10" t="s">
@@ -2936,14 +2949,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>97</v>
       </c>
-      <c r="C11">
+      <c r="B11"/>
+      <c r="C11" t="n">
         <v>0.111519607843137</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>3094</v>
       </c>
       <c r="E11" t="s">
@@ -2959,14 +2973,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
-        <v>9.4506920415224904E-2</v>
-      </c>
-      <c r="D12">
+      <c r="B12"/>
+      <c r="C12" t="n">
+        <v>0.0945069204152249</v>
+      </c>
+      <c r="D12" t="n">
         <v>2622</v>
       </c>
       <c r="E12" t="s">
@@ -2982,14 +2997,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>360</v>
       </c>
-      <c r="C13">
-        <v>4.7806229410003002E-2</v>
-      </c>
-      <c r="D13">
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>0.047806229410003</v>
+      </c>
+      <c r="D13" t="n">
         <v>2554</v>
       </c>
       <c r="E13" t="s">
@@ -3005,14 +3021,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>229</v>
       </c>
-      <c r="C14">
-        <v>5.3721174004192898E-3</v>
-      </c>
-      <c r="D14">
+      <c r="B14"/>
+      <c r="C14" t="n">
+        <v>0.00537211740041929</v>
+      </c>
+      <c r="D14" t="n">
         <v>287</v>
       </c>
       <c r="E14" t="s">
@@ -3028,14 +3045,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>362</v>
       </c>
-      <c r="C15">
-        <v>2.0028451632225202E-3</v>
-      </c>
-      <c r="D15">
+      <c r="B15"/>
+      <c r="C15" t="n">
+        <v>0.00200284516322252</v>
+      </c>
+      <c r="D15" t="n">
         <v>107</v>
       </c>
       <c r="E15" t="s">
@@ -3051,14 +3069,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>364</v>
       </c>
-      <c r="C16">
-        <v>1.7969451931716101E-3</v>
-      </c>
-      <c r="D16">
+      <c r="B16"/>
+      <c r="C16" t="n">
+        <v>0.00179694519317161</v>
+      </c>
+      <c r="D16" t="n">
         <v>96</v>
       </c>
       <c r="E16" t="s">
@@ -3074,14 +3093,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>109</v>
       </c>
-      <c r="C17">
-        <v>4.30663221360896E-4</v>
-      </c>
-      <c r="D17">
+      <c r="B17"/>
+      <c r="C17" t="n">
+        <v>0.000430663221360896</v>
+      </c>
+      <c r="D17" t="n">
         <v>2</v>
       </c>
       <c r="E17" t="s">
@@ -3097,14 +3117,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>113</v>
       </c>
-      <c r="C18">
-        <v>4.30663221360896E-4</v>
-      </c>
-      <c r="D18">
+      <c r="B18"/>
+      <c r="C18" t="n">
+        <v>0.000430663221360896</v>
+      </c>
+      <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="s">
@@ -3120,48 +3141,55 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>120</v>
       </c>
+      <c r="B19"/>
       <c r="C19" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>121</v>
       </c>
+      <c r="F19"/>
+      <c r="G19"/>
       <c r="H19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>122</v>
       </c>
+      <c r="B20"/>
       <c r="C20" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>123</v>
       </c>
+      <c r="F20"/>
+      <c r="G20"/>
       <c r="H20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>124</v>
       </c>
+      <c r="B21"/>
       <c r="C21" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -3177,14 +3205,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>126</v>
       </c>
+      <c r="B22"/>
       <c r="C22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="s">
@@ -3202,19 +3231,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3240,14 +3269,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
-      <c r="C2">
-        <v>1.66649704864645E-3</v>
-      </c>
-      <c r="D2">
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>0.00166649704864645</v>
+      </c>
+      <c r="D2" t="n">
         <v>393</v>
       </c>
       <c r="E2" t="s">
@@ -3263,14 +3293,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="C3">
-        <v>1.07388316151203E-3</v>
-      </c>
-      <c r="D3">
+      <c r="B3"/>
+      <c r="C3" t="n">
+        <v>0.00107388316151203</v>
+      </c>
+      <c r="D3" t="n">
         <v>15</v>
       </c>
       <c r="E3" t="s">
@@ -3286,14 +3317,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>370</v>
       </c>
-      <c r="C4">
-        <v>1.00229095074456E-3</v>
-      </c>
-      <c r="D4">
+      <c r="B4"/>
+      <c r="C4" t="n">
+        <v>0.00100229095074456</v>
+      </c>
+      <c r="D4" t="n">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -3309,14 +3341,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>373</v>
       </c>
-      <c r="C5">
-        <v>1.00229095074456E-3</v>
-      </c>
-      <c r="D5">
+      <c r="B5"/>
+      <c r="C5" t="n">
+        <v>0.00100229095074456</v>
+      </c>
+      <c r="D5" t="n">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -3332,14 +3365,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>104</v>
       </c>
-      <c r="C6">
-        <v>9.3069873997709E-4</v>
-      </c>
-      <c r="D6">
+      <c r="B6"/>
+      <c r="C6" t="n">
+        <v>0.00093069873997709</v>
+      </c>
+      <c r="D6" t="n">
         <v>13</v>
       </c>
       <c r="E6" t="s">
@@ -3355,14 +3389,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>375</v>
       </c>
-      <c r="C7">
-        <v>9.3069873997709E-4</v>
-      </c>
-      <c r="D7">
+      <c r="B7"/>
+      <c r="C7" t="n">
+        <v>0.00093069873997709</v>
+      </c>
+      <c r="D7" t="n">
         <v>13</v>
       </c>
       <c r="E7" t="s">
@@ -3378,14 +3413,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>377</v>
       </c>
-      <c r="C8">
-        <v>8.5910652920962198E-4</v>
-      </c>
-      <c r="D8">
+      <c r="B8"/>
+      <c r="C8" t="n">
+        <v>0.000859106529209622</v>
+      </c>
+      <c r="D8" t="n">
         <v>12</v>
       </c>
       <c r="E8" t="s">
@@ -3401,14 +3437,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>379</v>
       </c>
-      <c r="C9">
-        <v>7.8751431844215395E-4</v>
-      </c>
-      <c r="D9">
+      <c r="B9"/>
+      <c r="C9" t="n">
+        <v>0.000787514318442154</v>
+      </c>
+      <c r="D9" t="n">
         <v>11</v>
       </c>
       <c r="E9" t="s">
@@ -3424,14 +3461,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>381</v>
       </c>
-      <c r="C10">
-        <v>4.30663221360896E-4</v>
-      </c>
-      <c r="D10">
+      <c r="B10"/>
+      <c r="C10" t="n">
+        <v>0.000430663221360896</v>
+      </c>
+      <c r="D10" t="n">
         <v>12</v>
       </c>
       <c r="E10" t="s">
@@ -3447,14 +3485,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>383</v>
       </c>
-      <c r="C11">
-        <v>4.2955326460481099E-4</v>
-      </c>
-      <c r="D11">
+      <c r="B11"/>
+      <c r="C11" t="n">
+        <v>0.000429553264604811</v>
+      </c>
+      <c r="D11" t="n">
         <v>6</v>
       </c>
       <c r="E11" t="s">
@@ -3470,14 +3509,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="C12">
-        <v>3.58886017800746E-4</v>
-      </c>
-      <c r="D12">
+      <c r="B12"/>
+      <c r="C12" t="n">
+        <v>0.000358886017800746</v>
+      </c>
+      <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="s">
@@ -3493,14 +3533,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>385</v>
       </c>
-      <c r="C13">
-        <v>2.62054507337526E-4</v>
-      </c>
-      <c r="D13">
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>0.000262054507337526</v>
+      </c>
+      <c r="D13" t="n">
         <v>14</v>
       </c>
       <c r="E13" t="s">
@@ -3516,14 +3557,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>387</v>
       </c>
-      <c r="C14">
-        <v>1.52765047357165E-4</v>
-      </c>
-      <c r="D14">
+      <c r="B14"/>
+      <c r="C14" t="n">
+        <v>0.000152765047357165</v>
+      </c>
+      <c r="D14" t="n">
         <v>12</v>
       </c>
       <c r="E14" t="s">
@@ -3539,14 +3581,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>389</v>
       </c>
-      <c r="C15">
-        <v>1.4318442153493701E-4</v>
-      </c>
-      <c r="D15">
+      <c r="B15"/>
+      <c r="C15" t="n">
+        <v>0.000143184421534937</v>
+      </c>
+      <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="s">
@@ -3562,14 +3605,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>392</v>
       </c>
-      <c r="C16">
-        <v>1.4318442153493701E-4</v>
-      </c>
-      <c r="D16">
+      <c r="B16"/>
+      <c r="C16" t="n">
+        <v>0.000143184421534937</v>
+      </c>
+      <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" t="s">
@@ -3585,14 +3629,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>394</v>
       </c>
-      <c r="C17">
-        <v>7.1592210767468503E-5</v>
-      </c>
-      <c r="D17">
+      <c r="B17"/>
+      <c r="C17" t="n">
+        <v>7.15922107674685e-05</v>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="s">
@@ -3608,14 +3653,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>396</v>
       </c>
-      <c r="C18">
-        <v>7.1592210767468503E-5</v>
-      </c>
-      <c r="D18">
+      <c r="B18"/>
+      <c r="C18" t="n">
+        <v>7.15922107674685e-05</v>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="s">
@@ -3631,14 +3677,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>234</v>
       </c>
-      <c r="C19">
-        <v>4.5620437956204397E-5</v>
-      </c>
-      <c r="D19">
+      <c r="B19"/>
+      <c r="C19" t="n">
+        <v>4.56204379562044e-05</v>
+      </c>
+      <c r="D19" t="n">
         <v>3</v>
       </c>
       <c r="E19" t="s">
@@ -3654,14 +3701,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>398</v>
       </c>
+      <c r="B20"/>
       <c r="C20" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="s">
@@ -3677,14 +3725,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>400</v>
       </c>
+      <c r="B21"/>
       <c r="C21" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -3700,31 +3749,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>236</v>
       </c>
+      <c r="B22"/>
       <c r="C22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>237</v>
       </c>
+      <c r="F22"/>
+      <c r="G22"/>
       <c r="H22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>61</v>
       </c>
+      <c r="B23"/>
       <c r="C23" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="s">
@@ -3740,14 +3793,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>402</v>
       </c>
+      <c r="B24"/>
       <c r="C24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="s">
@@ -3763,31 +3817,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>238</v>
       </c>
+      <c r="B25"/>
       <c r="C25" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>239</v>
       </c>
+      <c r="F25"/>
+      <c r="G25"/>
       <c r="H25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>404</v>
       </c>
+      <c r="B26"/>
       <c r="C26" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="s">
@@ -3803,19 +3861,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>406</v>
       </c>
+      <c r="B27"/>
       <c r="C27" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>407</v>
       </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>408</v>
       </c>
@@ -3823,19 +3883,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>409</v>
       </c>
+      <c r="B28"/>
       <c r="C28" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>410</v>
       </c>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>408</v>
       </c>
@@ -3843,19 +3905,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>411</v>
       </c>
+      <c r="B29"/>
       <c r="C29" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>412</v>
       </c>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>408</v>
       </c>
@@ -3863,19 +3927,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>413</v>
       </c>
+      <c r="B30"/>
       <c r="C30" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>414</v>
       </c>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>408</v>
       </c>
@@ -3883,19 +3949,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>415</v>
       </c>
+      <c r="B31"/>
       <c r="C31" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>416</v>
       </c>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>408</v>
       </c>
@@ -3903,19 +3971,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>417</v>
       </c>
+      <c r="B32"/>
       <c r="C32" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>418</v>
       </c>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>408</v>
       </c>
@@ -3923,14 +3993,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>419</v>
       </c>
+      <c r="B33"/>
       <c r="C33" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="s">
@@ -3946,14 +4017,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>421</v>
       </c>
+      <c r="B34"/>
       <c r="C34" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="s">
@@ -3971,31 +4043,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4021,14 +4081,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>423</v>
       </c>
-      <c r="C2">
-        <v>0.88812392426850295</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.888123924268503</v>
+      </c>
+      <c r="D2" t="n">
         <v>1032</v>
       </c>
       <c r="E2" t="s">
@@ -4044,17 +4107,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>427</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0.88812392426850295</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>0.888123924268503</v>
+      </c>
+      <c r="D3" t="n">
         <v>1032</v>
       </c>
       <c r="E3" t="s">
@@ -4070,17 +4133,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>429</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>0.88812392426850295</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>0.888123924268503</v>
+      </c>
+      <c r="D4" t="n">
         <v>1032</v>
       </c>
       <c r="E4" t="s">
@@ -4096,17 +4159,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>431</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>0.88812392426850295</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>0.888123924268503</v>
+      </c>
+      <c r="D5" t="n">
         <v>1032</v>
       </c>
       <c r="E5" t="s">
@@ -4122,67 +4185,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>236</v>
       </c>
+      <c r="B6"/>
       <c r="C6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>237</v>
       </c>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>433</v>
       </c>
+      <c r="B7"/>
       <c r="C7" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>434</v>
       </c>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4208,14 +4265,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>435</v>
       </c>
-      <c r="C2">
-        <v>0.69501718213058405</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.695017182130584</v>
+      </c>
+      <c r="D2" t="n">
         <v>9708</v>
       </c>
       <c r="E2" t="s">
@@ -4231,14 +4291,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>439</v>
       </c>
-      <c r="C3">
-        <v>0.69329896907216504</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.693298969072165</v>
+      </c>
+      <c r="D3" t="n">
         <v>9684</v>
       </c>
       <c r="E3" t="s">
@@ -4254,14 +4317,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>441</v>
       </c>
-      <c r="C4">
-        <v>0.67497136311569295</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.674971363115693</v>
+      </c>
+      <c r="D4" t="n">
         <v>9428</v>
       </c>
       <c r="E4" t="s">
@@ -4277,14 +4343,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>443</v>
       </c>
-      <c r="C5">
-        <v>0.56421821305841902</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.564218213058419</v>
+      </c>
+      <c r="D5" t="n">
         <v>7881</v>
       </c>
       <c r="E5" t="s">
@@ -4300,14 +4369,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>445</v>
       </c>
-      <c r="C6">
-        <v>0.53959049255441005</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.53959049255441</v>
+      </c>
+      <c r="D6" t="n">
         <v>7537</v>
       </c>
       <c r="E6" t="s">
@@ -4323,14 +4395,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>447</v>
       </c>
-      <c r="C7">
-        <v>0.53672680412371099</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.536726804123711</v>
+      </c>
+      <c r="D7" t="n">
         <v>7497</v>
       </c>
       <c r="E7" t="s">
@@ -4346,14 +4421,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>449</v>
       </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.409077892325315</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>5714</v>
       </c>
       <c r="E8" t="s">
@@ -4369,14 +4447,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>451</v>
       </c>
-      <c r="C9">
-        <v>0.39826746849942701</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.398267468499427</v>
+      </c>
+      <c r="D9" t="n">
         <v>5563</v>
       </c>
       <c r="E9" t="s">
@@ -4392,14 +4473,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>453</v>
       </c>
-      <c r="C10">
-        <v>0.37628865979381398</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.376288659793814</v>
+      </c>
+      <c r="D10" t="n">
         <v>5256</v>
       </c>
       <c r="E10" t="s">
@@ -4415,14 +4499,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>455</v>
       </c>
-      <c r="C11">
-        <v>0.14974704085528801</v>
-      </c>
-      <c r="D11">
+      <c r="B11"/>
+      <c r="C11" t="n">
+        <v>0.149747040855288</v>
+      </c>
+      <c r="D11" t="n">
         <v>6275</v>
       </c>
       <c r="E11" t="s">
@@ -4438,14 +4523,15 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>458</v>
       </c>
-      <c r="C12">
-        <v>0.11173157693776301</v>
-      </c>
-      <c r="D12">
+      <c r="B12"/>
+      <c r="C12" t="n">
+        <v>0.111731576937763</v>
+      </c>
+      <c r="D12" t="n">
         <v>4682</v>
       </c>
       <c r="E12" t="s">
@@ -4461,14 +4547,15 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>460</v>
       </c>
-      <c r="C13">
-        <v>4.2024627720503999E-2</v>
-      </c>
-      <c r="D13">
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>0.042024627720504</v>
+      </c>
+      <c r="D13" t="n">
         <v>1761</v>
       </c>
       <c r="E13" t="s">
@@ -4484,14 +4571,15 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>462</v>
       </c>
-      <c r="C14">
-        <v>1.01843364904776E-4</v>
-      </c>
-      <c r="D14">
+      <c r="B14"/>
+      <c r="C14" t="n">
+        <v>0.000101843364904776</v>
+      </c>
+      <c r="D14" t="n">
         <v>8</v>
       </c>
       <c r="E14" t="s">
@@ -4507,14 +4595,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>464</v>
       </c>
+      <c r="B15"/>
       <c r="C15" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -4523,18 +4612,20 @@
       <c r="F15" t="s">
         <v>337</v>
       </c>
+      <c r="G15"/>
       <c r="H15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>466</v>
       </c>
+      <c r="B16"/>
       <c r="C16" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -4543,18 +4634,20 @@
       <c r="F16" t="s">
         <v>337</v>
       </c>
+      <c r="G16"/>
       <c r="H16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>468</v>
       </c>
+      <c r="B17"/>
       <c r="C17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="s">
@@ -4563,18 +4656,20 @@
       <c r="F17" t="s">
         <v>337</v>
       </c>
+      <c r="G17"/>
       <c r="H17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>470</v>
       </c>
+      <c r="B18"/>
       <c r="C18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="s">
@@ -4583,18 +4678,20 @@
       <c r="F18" t="s">
         <v>337</v>
       </c>
+      <c r="G18"/>
       <c r="H18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>472</v>
       </c>
+      <c r="B19"/>
       <c r="C19" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="s">
@@ -4603,18 +4700,20 @@
       <c r="F19" t="s">
         <v>337</v>
       </c>
+      <c r="G19"/>
       <c r="H19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>474</v>
       </c>
+      <c r="B20"/>
       <c r="C20" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="s">
@@ -4623,18 +4722,20 @@
       <c r="F20" t="s">
         <v>337</v>
       </c>
+      <c r="G20"/>
       <c r="H20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>476</v>
       </c>
+      <c r="B21"/>
       <c r="C21" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -4643,18 +4744,20 @@
       <c r="F21" t="s">
         <v>337</v>
       </c>
+      <c r="G21"/>
       <c r="H21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>478</v>
       </c>
+      <c r="B22"/>
       <c r="C22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="s">
@@ -4663,18 +4766,20 @@
       <c r="F22" t="s">
         <v>337</v>
       </c>
+      <c r="G22"/>
       <c r="H22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>480</v>
       </c>
+      <c r="B23"/>
       <c r="C23" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="s">
@@ -4683,18 +4788,20 @@
       <c r="F23" t="s">
         <v>337</v>
       </c>
+      <c r="G23"/>
       <c r="H23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>130</v>
       </c>
+      <c r="B24"/>
       <c r="C24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="s">
@@ -4712,19 +4819,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4752,31 +4859,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4802,17 +4897,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0.67304642445213403</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>0.673046424452134</v>
+      </c>
+      <c r="D2" t="n">
         <v>18673</v>
       </c>
       <c r="E2" t="s">
@@ -4828,17 +4923,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0.66814446366781999</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>0.66814446366782</v>
+      </c>
+      <c r="D3" t="n">
         <v>18537</v>
       </c>
       <c r="E3" t="s">
@@ -4854,17 +4949,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>0.62939734717416396</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>0.629397347174164</v>
+      </c>
+      <c r="D4" t="n">
         <v>17462</v>
       </c>
       <c r="E4" t="s">
@@ -4880,17 +4975,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>0.62611735870818896</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>0.626117358708189</v>
+      </c>
+      <c r="D5" t="n">
         <v>17371</v>
       </c>
       <c r="E5" t="s">
@@ -4906,17 +5001,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>0.61176704217215505</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>0.611767042172155</v>
+      </c>
+      <c r="D6" t="n">
         <v>33887</v>
       </c>
       <c r="E6" t="s">
@@ -4925,21 +5020,22 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0.56275230680507504</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>0.562752306805075</v>
+      </c>
+      <c r="D7" t="n">
         <v>15613</v>
       </c>
       <c r="E7" t="s">
@@ -4955,17 +5051,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>0.55799452133794702</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>0.557994521337947</v>
+      </c>
+      <c r="D8" t="n">
         <v>15481</v>
       </c>
       <c r="E8" t="s">
@@ -4981,17 +5077,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>0.53726169844020799</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>0.537261698440208</v>
+      </c>
+      <c r="D9" t="n">
         <v>29760</v>
       </c>
       <c r="E9" t="s">
@@ -5007,17 +5103,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>0.51913927335640098</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>0.519139273356401</v>
+      </c>
+      <c r="D10" t="n">
         <v>14403</v>
       </c>
       <c r="E10" t="s">
@@ -5033,17 +5129,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>0.44414355863662602</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="n">
+        <v>0.444143558636626</v>
+      </c>
+      <c r="D11" t="n">
         <v>24602</v>
       </c>
       <c r="E11" t="s">
@@ -5059,17 +5155,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0.437139561707036</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>12128</v>
       </c>
       <c r="E12" t="s">
@@ -5085,17 +5181,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>0.42484474292316599</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="n">
+        <v>0.424844742923166</v>
+      </c>
+      <c r="D13" t="n">
         <v>23533</v>
       </c>
       <c r="E13" t="s">
@@ -5104,21 +5200,22 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
+      <c r="G13"/>
       <c r="H13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>0.28910755478662098</v>
-      </c>
-      <c r="D14">
+      <c r="C14" t="n">
+        <v>0.289107554786621</v>
+      </c>
+      <c r="D14" t="n">
         <v>8021</v>
       </c>
       <c r="E14" t="s">
@@ -5134,14 +5231,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="B15"/>
+      <c r="C15" t="n">
         <v>0.193963027151935</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>10744</v>
       </c>
       <c r="E15" t="s">
@@ -5157,14 +5255,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
-        <v>0.18345609474292299</v>
-      </c>
-      <c r="D16">
+      <c r="B16"/>
+      <c r="C16" t="n">
+        <v>0.183456094742923</v>
+      </c>
+      <c r="D16" t="n">
         <v>10162</v>
       </c>
       <c r="E16" t="s">
@@ -5180,14 +5279,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
-        <v>0.17525996533795499</v>
-      </c>
-      <c r="D17">
+      <c r="B17"/>
+      <c r="C17" t="n">
+        <v>0.175259965337955</v>
+      </c>
+      <c r="D17" t="n">
         <v>9708</v>
       </c>
       <c r="E17" t="s">
@@ -5203,14 +5303,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="C18">
-        <v>0.16345320623916801</v>
-      </c>
-      <c r="D18">
+      <c r="B18"/>
+      <c r="C18" t="n">
+        <v>0.163453206239168</v>
+      </c>
+      <c r="D18" t="n">
         <v>9054</v>
       </c>
       <c r="E18" t="s">
@@ -5226,14 +5327,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="C19">
+      <c r="B19"/>
+      <c r="C19" t="n">
         <v>0.145183419988446</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>8042</v>
       </c>
       <c r="E19" t="s">
@@ -5249,14 +5351,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="C20">
-        <v>0.13198656845753901</v>
-      </c>
-      <c r="D20">
+      <c r="B20"/>
+      <c r="C20" t="n">
+        <v>0.131986568457539</v>
+      </c>
+      <c r="D20" t="n">
         <v>7311</v>
       </c>
       <c r="E20" t="s">
@@ -5272,14 +5375,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>97</v>
       </c>
-      <c r="C21">
+      <c r="B21"/>
+      <c r="C21" t="n">
         <v>0.111519607843137</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>3094</v>
       </c>
       <c r="E21" t="s">
@@ -5295,14 +5399,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>99</v>
       </c>
-      <c r="C22">
-        <v>9.4506920415224904E-2</v>
-      </c>
-      <c r="D22">
+      <c r="B22"/>
+      <c r="C22" t="n">
+        <v>0.0945069204152249</v>
+      </c>
+      <c r="D22" t="n">
         <v>2622</v>
       </c>
       <c r="E22" t="s">
@@ -5318,14 +5423,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="C23">
-        <v>7.4424069905997606E-2</v>
-      </c>
-      <c r="D23">
+      <c r="B23"/>
+      <c r="C23" t="n">
+        <v>0.0744240699059976</v>
+      </c>
+      <c r="D23" t="n">
         <v>4497</v>
       </c>
       <c r="E23" t="s">
@@ -5341,14 +5447,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="C24">
-        <v>6.8999133448873498E-2</v>
-      </c>
-      <c r="D24">
+      <c r="B24"/>
+      <c r="C24" t="n">
+        <v>0.0689991334488735</v>
+      </c>
+      <c r="D24" t="n">
         <v>3822</v>
       </c>
       <c r="E24" t="s">
@@ -5364,14 +5471,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="C25">
-        <v>6.3583188908145599E-2</v>
-      </c>
-      <c r="D25">
+      <c r="B25"/>
+      <c r="C25" t="n">
+        <v>0.0635831889081456</v>
+      </c>
+      <c r="D25" t="n">
         <v>3522</v>
       </c>
       <c r="E25" t="s">
@@ -5387,14 +5495,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
-        <v>5.5477325245522797E-2</v>
-      </c>
-      <c r="D26">
+      <c r="B26"/>
+      <c r="C26" t="n">
+        <v>0.0554773252455228</v>
+      </c>
+      <c r="D26" t="n">
         <v>3073</v>
       </c>
       <c r="E26" t="s">
@@ -5410,14 +5519,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="C27">
-        <v>3.9410023108029997E-2</v>
-      </c>
-      <c r="D27">
+      <c r="B27"/>
+      <c r="C27" t="n">
+        <v>0.03941002310803</v>
+      </c>
+      <c r="D27" t="n">
         <v>2183</v>
       </c>
       <c r="E27" t="s">
@@ -5433,14 +5543,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="C28">
-        <v>3.1593009820912801E-2</v>
-      </c>
-      <c r="D28">
+      <c r="B28"/>
+      <c r="C28" t="n">
+        <v>0.0315930098209128</v>
+      </c>
+      <c r="D28" t="n">
         <v>875</v>
       </c>
       <c r="E28" t="s">
@@ -5456,14 +5567,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="C29">
-        <v>1.07388316151203E-3</v>
-      </c>
-      <c r="D29">
+      <c r="B29"/>
+      <c r="C29" t="n">
+        <v>0.00107388316151203</v>
+      </c>
+      <c r="D29" t="n">
         <v>15</v>
       </c>
       <c r="E29" t="s">
@@ -5479,14 +5591,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>101</v>
       </c>
-      <c r="C30">
-        <v>9.3876372039283697E-4</v>
-      </c>
-      <c r="D30">
+      <c r="B30"/>
+      <c r="C30" t="n">
+        <v>0.000938763720392837</v>
+      </c>
+      <c r="D30" t="n">
         <v>26</v>
       </c>
       <c r="E30" t="s">
@@ -5502,14 +5615,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>104</v>
       </c>
-      <c r="C31">
-        <v>9.3069873997709E-4</v>
-      </c>
-      <c r="D31">
+      <c r="B31"/>
+      <c r="C31" t="n">
+        <v>0.00093069873997709</v>
+      </c>
+      <c r="D31" t="n">
         <v>13</v>
       </c>
       <c r="E31" t="s">
@@ -5525,14 +5639,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>106</v>
       </c>
-      <c r="C32">
-        <v>8.1239168110918498E-4</v>
-      </c>
-      <c r="D32">
+      <c r="B32"/>
+      <c r="C32" t="n">
+        <v>0.000812391681109185</v>
+      </c>
+      <c r="D32" t="n">
         <v>45</v>
       </c>
       <c r="E32" t="s">
@@ -5548,14 +5663,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="C33">
-        <v>7.8954923916164195E-4</v>
-      </c>
-      <c r="D33">
+      <c r="B33"/>
+      <c r="C33" t="n">
+        <v>0.000789549239161642</v>
+      </c>
+      <c r="D33" t="n">
         <v>22</v>
       </c>
       <c r="E33" t="s">
@@ -5571,14 +5687,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>109</v>
       </c>
-      <c r="C34">
-        <v>4.30663221360896E-4</v>
-      </c>
-      <c r="D34">
+      <c r="B34"/>
+      <c r="C34" t="n">
+        <v>0.000430663221360896</v>
+      </c>
+      <c r="D34" t="n">
         <v>2</v>
       </c>
       <c r="E34" t="s">
@@ -5594,14 +5711,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>113</v>
       </c>
-      <c r="C35">
-        <v>4.30663221360896E-4</v>
-      </c>
-      <c r="D35">
+      <c r="B35"/>
+      <c r="C35" t="n">
+        <v>0.000430663221360896</v>
+      </c>
+      <c r="D35" t="n">
         <v>2</v>
       </c>
       <c r="E35" t="s">
@@ -5617,14 +5735,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="C36">
-        <v>3.58886017800746E-4</v>
-      </c>
-      <c r="D36">
+      <c r="B36"/>
+      <c r="C36" t="n">
+        <v>0.000358886017800746</v>
+      </c>
+      <c r="D36" t="n">
         <v>10</v>
       </c>
       <c r="E36" t="s">
@@ -5640,14 +5759,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>115</v>
       </c>
-      <c r="C37">
-        <v>2.34690930098209E-4</v>
-      </c>
-      <c r="D37">
+      <c r="B37"/>
+      <c r="C37" t="n">
+        <v>0.000234690930098209</v>
+      </c>
+      <c r="D37" t="n">
         <v>13</v>
       </c>
       <c r="E37" t="s">
@@ -5663,31 +5783,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>118</v>
       </c>
+      <c r="B38"/>
       <c r="C38" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>119</v>
       </c>
+      <c r="F38"/>
+      <c r="G38"/>
       <c r="H38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>61</v>
       </c>
+      <c r="B39"/>
       <c r="C39" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="s">
@@ -5703,65 +5827,75 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>65</v>
       </c>
+      <c r="B40"/>
       <c r="C40" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>66</v>
       </c>
+      <c r="F40"/>
+      <c r="G40"/>
       <c r="H40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>120</v>
       </c>
+      <c r="B41"/>
       <c r="C41" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
       </c>
+      <c r="F41"/>
+      <c r="G41"/>
       <c r="H41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>122</v>
       </c>
+      <c r="B42"/>
       <c r="C42" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>123</v>
       </c>
+      <c r="F42"/>
+      <c r="G42"/>
       <c r="H42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>124</v>
       </c>
+      <c r="B43"/>
       <c r="C43" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="s">
@@ -5777,14 +5911,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>126</v>
       </c>
+      <c r="B44"/>
       <c r="C44" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="s">
@@ -5800,89 +5935,101 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>128</v>
       </c>
+      <c r="B45"/>
       <c r="C45" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>129</v>
       </c>
+      <c r="F45"/>
+      <c r="G45"/>
       <c r="H45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>67</v>
       </c>
+      <c r="B46"/>
       <c r="C46" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
+      <c r="F46"/>
+      <c r="G46"/>
       <c r="H46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>69</v>
       </c>
+      <c r="B47"/>
       <c r="C47" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>70</v>
       </c>
+      <c r="F47"/>
+      <c r="G47"/>
       <c r="H47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>71</v>
       </c>
+      <c r="B48"/>
       <c r="C48" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>72</v>
       </c>
+      <c r="F48"/>
+      <c r="G48"/>
       <c r="H48" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5908,14 +6055,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>130</v>
       </c>
+      <c r="B2"/>
       <c r="C2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -5931,14 +6079,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>134</v>
       </c>
+      <c r="B3"/>
       <c r="C3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -5954,10 +6103,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>136</v>
       </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4" t="s">
         <v>137</v>
       </c>
@@ -5971,10 +6123,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>141</v>
       </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
       <c r="E5" t="s">
         <v>142</v>
       </c>
@@ -5988,10 +6143,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>146</v>
       </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
       <c r="E6" t="s">
         <v>147</v>
       </c>
@@ -6005,21 +6163,29 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>148</v>
       </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
       <c r="E7" t="s">
         <v>149</v>
       </c>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>150</v>
       </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
       <c r="E8" t="s">
         <v>151</v>
       </c>
@@ -6033,10 +6199,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>154</v>
       </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
       <c r="E9" t="s">
         <v>155</v>
       </c>
@@ -6050,10 +6219,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>156</v>
       </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="E10" t="s">
         <v>157</v>
       </c>
@@ -6067,10 +6239,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>158</v>
       </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11" t="s">
         <v>159</v>
       </c>
@@ -6084,21 +6259,29 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>161</v>
       </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
       <c r="E12" t="s">
         <v>162</v>
       </c>
+      <c r="F12"/>
+      <c r="G12"/>
       <c r="H12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>163</v>
       </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13" t="s">
         <v>164</v>
       </c>
@@ -6112,10 +6295,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>165</v>
       </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
       <c r="E14" t="s">
         <v>166</v>
       </c>
@@ -6129,10 +6315,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>167</v>
       </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
       <c r="E15" t="s">
         <v>168</v>
       </c>
@@ -6146,10 +6335,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>169</v>
       </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="E16" t="s">
         <v>170</v>
       </c>
@@ -6163,10 +6355,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>171</v>
       </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="E17" t="s">
         <v>172</v>
       </c>
@@ -6180,10 +6375,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>173</v>
       </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="E18" t="s">
         <v>174</v>
       </c>
@@ -6197,10 +6395,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>175</v>
       </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="E19" t="s">
         <v>176</v>
       </c>
@@ -6214,21 +6415,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>177</v>
       </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
       <c r="E20" t="s">
         <v>178</v>
       </c>
+      <c r="F20"/>
+      <c r="G20"/>
       <c r="H20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>179</v>
       </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21" t="s">
         <v>180</v>
       </c>
@@ -6242,76 +6451,109 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>181</v>
       </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>182</v>
       </c>
+      <c r="F22"/>
+      <c r="G22"/>
       <c r="H22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>183</v>
       </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
       <c r="E23" t="s">
         <v>184</v>
       </c>
+      <c r="F23"/>
+      <c r="G23"/>
       <c r="H23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>185</v>
       </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
       <c r="E24" t="s">
         <v>186</v>
       </c>
+      <c r="F24"/>
+      <c r="G24"/>
       <c r="H24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>187</v>
       </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
       <c r="E25" t="s">
         <v>188</v>
       </c>
+      <c r="F25"/>
+      <c r="G25"/>
       <c r="H25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>189</v>
       </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
       <c r="E26" t="s">
         <v>190</v>
       </c>
+      <c r="F26"/>
+      <c r="G26"/>
       <c r="H26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>191</v>
       </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
       <c r="E27" t="s">
         <v>192</v>
       </c>
+      <c r="F27"/>
+      <c r="G27"/>
       <c r="H27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>193</v>
       </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
       <c r="E28" t="s">
         <v>194</v>
       </c>
@@ -6325,21 +6567,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>195</v>
       </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
       <c r="E29" t="s">
         <v>196</v>
       </c>
+      <c r="F29"/>
+      <c r="G29"/>
       <c r="H29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>197</v>
       </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
       <c r="E30" t="s">
         <v>198</v>
       </c>
@@ -6353,10 +6603,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>199</v>
       </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
       <c r="E31" t="s">
         <v>200</v>
       </c>
@@ -6370,10 +6623,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>201</v>
       </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
       <c r="E32" t="s">
         <v>202</v>
       </c>
@@ -6387,10 +6643,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>203</v>
       </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33" t="s">
         <v>204</v>
       </c>
@@ -6404,21 +6663,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>205</v>
       </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
       <c r="E34" t="s">
         <v>206</v>
       </c>
+      <c r="F34"/>
+      <c r="G34"/>
       <c r="H34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>207</v>
       </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
       <c r="E35" t="s">
         <v>208</v>
       </c>
@@ -6432,32 +6699,45 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>209</v>
       </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
       <c r="E36" t="s">
         <v>210</v>
       </c>
+      <c r="F36"/>
+      <c r="G36"/>
       <c r="H36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>211</v>
       </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
       <c r="E37" t="s">
         <v>212</v>
       </c>
+      <c r="F37"/>
+      <c r="G37"/>
       <c r="H37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>213</v>
       </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
       <c r="E38" t="s">
         <v>214</v>
       </c>
@@ -6471,10 +6751,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>215</v>
       </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
       <c r="E39" t="s">
         <v>216</v>
       </c>
@@ -6488,10 +6771,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>217</v>
       </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
       <c r="E40" t="s">
         <v>218</v>
       </c>
@@ -6505,10 +6791,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>219</v>
       </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
       <c r="E41" t="s">
         <v>220</v>
       </c>
@@ -6522,10 +6811,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>221</v>
       </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
       <c r="E42" t="s">
         <v>222</v>
       </c>
@@ -6539,58 +6831,69 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>223</v>
       </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
       <c r="E43" t="s">
         <v>224</v>
       </c>
+      <c r="F43"/>
+      <c r="G43"/>
       <c r="H43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>225</v>
       </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
       <c r="E44" t="s">
         <v>226</v>
       </c>
+      <c r="F44"/>
+      <c r="G44"/>
       <c r="H44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>227</v>
       </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
       <c r="E45" t="s">
         <v>228</v>
       </c>
+      <c r="F45"/>
+      <c r="G45"/>
       <c r="H45" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6616,14 +6919,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>229</v>
       </c>
-      <c r="C2">
-        <v>5.3721174004192898E-3</v>
-      </c>
-      <c r="D2">
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>0.00537211740041929</v>
+      </c>
+      <c r="D2" t="n">
         <v>287</v>
       </c>
       <c r="E2" t="s">
@@ -6639,14 +6943,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>234</v>
       </c>
-      <c r="C3">
-        <v>4.5620437956204397E-5</v>
-      </c>
-      <c r="D3">
+      <c r="B3"/>
+      <c r="C3" t="n">
+        <v>4.56204379562044e-05</v>
+      </c>
+      <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -6662,44 +6967,53 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>236</v>
       </c>
+      <c r="B4"/>
       <c r="C4" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>237</v>
       </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>238</v>
       </c>
+      <c r="B5"/>
       <c r="C5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>239</v>
       </c>
+      <c r="F5"/>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>240</v>
       </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
       <c r="E6" t="s">
         <v>241</v>
       </c>
@@ -6713,10 +7027,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>242</v>
       </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
       <c r="E7" t="s">
         <v>243</v>
       </c>
@@ -6730,10 +7047,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>141</v>
       </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
       <c r="E8" t="s">
         <v>142</v>
       </c>
@@ -6747,10 +7067,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>146</v>
       </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
       <c r="E9" t="s">
         <v>147</v>
       </c>
@@ -6764,10 +7087,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>244</v>
       </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="E10" t="s">
         <v>245</v>
       </c>
@@ -6781,10 +7107,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>246</v>
       </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11" t="s">
         <v>247</v>
       </c>
@@ -6798,10 +7127,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>248</v>
       </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
       <c r="E12" t="s">
         <v>249</v>
       </c>
@@ -6815,10 +7147,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>250</v>
       </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13" t="s">
         <v>251</v>
       </c>
@@ -6832,10 +7167,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>252</v>
       </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
       <c r="E14" t="s">
         <v>253</v>
       </c>
@@ -6849,10 +7187,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>254</v>
       </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
       <c r="E15" t="s">
         <v>255</v>
       </c>
@@ -6866,10 +7207,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>256</v>
       </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="E16" t="s">
         <v>257</v>
       </c>
@@ -6883,10 +7227,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>258</v>
       </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="E17" t="s">
         <v>259</v>
       </c>
@@ -6900,10 +7247,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>260</v>
       </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="E18" t="s">
         <v>261</v>
       </c>
@@ -6917,10 +7267,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>262</v>
       </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="E19" t="s">
         <v>263</v>
       </c>
@@ -6934,10 +7287,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>264</v>
       </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
       <c r="E20" t="s">
         <v>265</v>
       </c>
@@ -6951,10 +7307,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>266</v>
       </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21" t="s">
         <v>267</v>
       </c>
@@ -6968,10 +7327,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>268</v>
       </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>269</v>
       </c>
@@ -6985,10 +7347,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>270</v>
       </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
       <c r="E23" t="s">
         <v>271</v>
       </c>
@@ -7002,10 +7367,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>272</v>
       </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
       <c r="E24" t="s">
         <v>273</v>
       </c>
@@ -7019,10 +7387,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>274</v>
       </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
       <c r="E25" t="s">
         <v>275</v>
       </c>
@@ -7036,10 +7407,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>276</v>
       </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
       <c r="E26" t="s">
         <v>277</v>
       </c>
@@ -7053,10 +7427,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>280</v>
       </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
       <c r="E27" t="s">
         <v>281</v>
       </c>
@@ -7070,10 +7447,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>282</v>
       </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
       <c r="E28" t="s">
         <v>283</v>
       </c>
@@ -7087,10 +7467,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>284</v>
       </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
       <c r="E29" t="s">
         <v>285</v>
       </c>
@@ -7104,10 +7487,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>286</v>
       </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
       <c r="E30" t="s">
         <v>287</v>
       </c>
@@ -7121,32 +7507,45 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>288</v>
       </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
       <c r="E31" t="s">
         <v>289</v>
       </c>
+      <c r="F31"/>
+      <c r="G31"/>
       <c r="H31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>290</v>
       </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
       <c r="E32" t="s">
         <v>291</v>
       </c>
+      <c r="F32"/>
+      <c r="G32"/>
       <c r="H32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>292</v>
       </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33" t="s">
         <v>293</v>
       </c>
@@ -7160,10 +7559,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>295</v>
       </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
       <c r="E34" t="s">
         <v>296</v>
       </c>
@@ -7177,10 +7579,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>298</v>
       </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
       <c r="E35" t="s">
         <v>299</v>
       </c>
@@ -7194,10 +7599,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>300</v>
       </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
       <c r="E36" t="s">
         <v>301</v>
       </c>
@@ -7211,10 +7619,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>302</v>
       </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
       <c r="E37" t="s">
         <v>303</v>
       </c>
@@ -7228,10 +7639,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>304</v>
       </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
       <c r="E38" t="s">
         <v>305</v>
       </c>
@@ -7245,10 +7659,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>306</v>
       </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
       <c r="E39" t="s">
         <v>307</v>
       </c>
@@ -7262,10 +7679,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>308</v>
       </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
       <c r="E40" t="s">
         <v>309</v>
       </c>
@@ -7279,10 +7699,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>310</v>
       </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
       <c r="E41" t="s">
         <v>311</v>
       </c>
@@ -7296,10 +7719,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>312</v>
       </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
       <c r="E42" t="s">
         <v>313</v>
       </c>
@@ -7313,10 +7739,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>314</v>
       </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
       <c r="E43" t="s">
         <v>315</v>
       </c>
@@ -7330,10 +7759,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>158</v>
       </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
       <c r="E44" t="s">
         <v>159</v>
       </c>
@@ -7347,87 +7779,117 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>181</v>
       </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
       <c r="E45" t="s">
         <v>182</v>
       </c>
+      <c r="F45"/>
+      <c r="G45"/>
       <c r="H45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>316</v>
       </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
       <c r="E46" t="s">
         <v>317</v>
       </c>
+      <c r="F46"/>
+      <c r="G46"/>
       <c r="H46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>318</v>
       </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
       <c r="E47" t="s">
         <v>319</v>
       </c>
+      <c r="F47"/>
+      <c r="G47"/>
       <c r="H47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>320</v>
       </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
       <c r="E48" t="s">
         <v>321</v>
       </c>
+      <c r="F48"/>
+      <c r="G48"/>
       <c r="H48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>322</v>
       </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
       <c r="E49" t="s">
         <v>323</v>
       </c>
+      <c r="F49"/>
+      <c r="G49"/>
       <c r="H49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>324</v>
       </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
       <c r="E50" t="s">
         <v>325</v>
       </c>
+      <c r="F50"/>
+      <c r="G50"/>
       <c r="H50" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7453,10 +7915,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>326</v>
       </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2" t="s">
         <v>327</v>
       </c>
@@ -7470,43 +7935,53 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>331</v>
       </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3" t="s">
         <v>332</v>
       </c>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>333</v>
       </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4" t="s">
         <v>334</v>
       </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7532,14 +8007,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>335</v>
       </c>
+      <c r="B2"/>
       <c r="C2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -7548,18 +8024,20 @@
       <c r="F2" t="s">
         <v>337</v>
       </c>
+      <c r="G2"/>
       <c r="H2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>338</v>
       </c>
+      <c r="B3"/>
       <c r="C3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -7568,110 +8046,126 @@
       <c r="F3" t="s">
         <v>337</v>
       </c>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>340</v>
       </c>
+      <c r="B4"/>
       <c r="C4" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>341</v>
       </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>342</v>
       </c>
+      <c r="B5"/>
       <c r="C5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>343</v>
       </c>
+      <c r="F5"/>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>344</v>
       </c>
+      <c r="B6"/>
       <c r="C6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>345</v>
       </c>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>346</v>
       </c>
+      <c r="B7"/>
       <c r="C7" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>347</v>
       </c>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>348</v>
       </c>
+      <c r="B8"/>
       <c r="C8" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>349</v>
       </c>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7697,14 +8191,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>134</v>
       </c>
+      <c r="B2"/>
       <c r="C2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -7720,106 +8215,121 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>348</v>
       </c>
+      <c r="B3"/>
       <c r="C3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>349</v>
       </c>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>350</v>
       </c>
+      <c r="B4"/>
       <c r="C4" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>351</v>
       </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>352</v>
       </c>
+      <c r="B5"/>
       <c r="C5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>353</v>
       </c>
+      <c r="F5"/>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>354</v>
       </c>
+      <c r="B6"/>
       <c r="C6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>355</v>
       </c>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>356</v>
       </c>
+      <c r="B7"/>
       <c r="C7" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>357</v>
       </c>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7847,19 +8357,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7887,6 +8397,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>